--- a/Data/MCF10AUnique.xlsx
+++ b/Data/MCF10AUnique.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizem/Desktop/MCF10A_Fib_HUVEC_May2017_RNAseq_CuffDiff_Output/Significant_Genes_MS_June2017/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grcuh16_2/Documents/Developer/Projects/Gizem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1380" windowWidth="23180" windowHeight="13260" tabRatio="500"/>
+    <workbookView xWindow="10660" yWindow="2260" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Genes</t>
   </si>
@@ -92,15 +92,9 @@
     <t>ABCC2</t>
   </si>
   <si>
-    <t>CLN8</t>
-  </si>
-  <si>
     <t>GRHL3</t>
   </si>
   <si>
-    <t>ABTB2</t>
-  </si>
-  <si>
     <t>PLCH2</t>
   </si>
   <si>
@@ -119,15 +113,9 @@
     <t>ANKRD65</t>
   </si>
   <si>
-    <t>APOBEC3C</t>
-  </si>
-  <si>
     <t>APOBEC3H</t>
   </si>
   <si>
-    <t>ARHGAP5-AS1</t>
-  </si>
-  <si>
     <t>ARL14</t>
   </si>
   <si>
@@ -137,33 +125,18 @@
     <t>ASPA</t>
   </si>
   <si>
-    <t>BAX</t>
-  </si>
-  <si>
     <t>BDNF-AS1</t>
   </si>
   <si>
-    <t>BTBD19</t>
-  </si>
-  <si>
     <t>C14orf64</t>
   </si>
   <si>
-    <t>C16orf5</t>
-  </si>
-  <si>
     <t>C17orf108</t>
   </si>
   <si>
-    <t>C2orf66</t>
-  </si>
-  <si>
     <t>C3orf32</t>
   </si>
   <si>
-    <t>C5orf4</t>
-  </si>
-  <si>
     <t>C8ORFK29</t>
   </si>
   <si>
@@ -182,12 +155,6 @@
     <t>CALML3</t>
   </si>
   <si>
-    <t>CAPN3</t>
-  </si>
-  <si>
-    <t>CASZ1</t>
-  </si>
-  <si>
     <t>CD36</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>CEL</t>
   </si>
   <si>
-    <t>CES2</t>
-  </si>
-  <si>
     <t>CES3</t>
   </si>
   <si>
@@ -209,33 +173,21 @@
     <t>CSMD3</t>
   </si>
   <si>
-    <t>CSNK1G1</t>
-  </si>
-  <si>
     <t>CYP4F2</t>
   </si>
   <si>
     <t>CYP4F3</t>
   </si>
   <si>
-    <t>DFNB31</t>
-  </si>
-  <si>
     <t>DQX1</t>
   </si>
   <si>
-    <t>DUSP14</t>
-  </si>
-  <si>
     <t>ENPP2</t>
   </si>
   <si>
     <t>EPPK1</t>
   </si>
   <si>
-    <t>EPS8L2</t>
-  </si>
-  <si>
     <t>ETV7</t>
   </si>
   <si>
@@ -248,15 +200,9 @@
     <t>FAM19A2</t>
   </si>
   <si>
-    <t>FAM49A</t>
-  </si>
-  <si>
     <t>FGFR2</t>
   </si>
   <si>
-    <t>GAMT</t>
-  </si>
-  <si>
     <t>GAS2L2</t>
   </si>
   <si>
@@ -266,18 +212,12 @@
     <t>GLS2</t>
   </si>
   <si>
-    <t>GM2A</t>
-  </si>
-  <si>
     <t>GPR87</t>
   </si>
   <si>
     <t>GREB1</t>
   </si>
   <si>
-    <t>HES2</t>
-  </si>
-  <si>
     <t>HHAT</t>
   </si>
   <si>
@@ -290,12 +230,6 @@
     <t>IGFBP2</t>
   </si>
   <si>
-    <t>IL11</t>
-  </si>
-  <si>
-    <t>IL1A</t>
-  </si>
-  <si>
     <t>IL33</t>
   </si>
   <si>
@@ -308,27 +242,15 @@
     <t>IVL</t>
   </si>
   <si>
-    <t>IZUMO4</t>
-  </si>
-  <si>
     <t>KCNQ3</t>
   </si>
   <si>
-    <t>KIAA0247</t>
-  </si>
-  <si>
     <t>KLHL30</t>
   </si>
   <si>
-    <t>KSR1</t>
-  </si>
-  <si>
     <t>LAMA1</t>
   </si>
   <si>
-    <t>LAPTM5</t>
-  </si>
-  <si>
     <t>LCAT</t>
   </si>
   <si>
@@ -338,9 +260,6 @@
     <t>LCE1E</t>
   </si>
   <si>
-    <t>LIMK2</t>
-  </si>
-  <si>
     <t>LOC100130093</t>
   </si>
   <si>
@@ -359,15 +278,6 @@
     <t>LOC153684</t>
   </si>
   <si>
-    <t>LOC284385</t>
-  </si>
-  <si>
-    <t>LOC284440</t>
-  </si>
-  <si>
-    <t>LOC389906</t>
-  </si>
-  <si>
     <t>LOC646268</t>
   </si>
   <si>
@@ -380,21 +290,12 @@
     <t>MFSD4</t>
   </si>
   <si>
-    <t>MN1</t>
-  </si>
-  <si>
     <t>MR1</t>
   </si>
   <si>
-    <t>MRPL42P5</t>
-  </si>
-  <si>
     <t>MST1</t>
   </si>
   <si>
-    <t>MTA2</t>
-  </si>
-  <si>
     <t>MYBPHL</t>
   </si>
   <si>
@@ -407,18 +308,12 @@
     <t>NHLH2</t>
   </si>
   <si>
-    <t>NINJ1</t>
-  </si>
-  <si>
     <t>NKX2-5</t>
   </si>
   <si>
     <t>NLRP1</t>
   </si>
   <si>
-    <t>NOTCH1</t>
-  </si>
-  <si>
     <t>NUPR1</t>
   </si>
   <si>
@@ -428,36 +323,15 @@
     <t>PAQR7</t>
   </si>
   <si>
-    <t>PARD6G</t>
-  </si>
-  <si>
-    <t>PEAR1</t>
-  </si>
-  <si>
     <t>PFN4</t>
   </si>
   <si>
-    <t>PLCL2</t>
-  </si>
-  <si>
     <t>PLEKHF1</t>
   </si>
   <si>
-    <t>PLK2</t>
-  </si>
-  <si>
-    <t>PLXNB3</t>
-  </si>
-  <si>
     <t>POU5F1B</t>
   </si>
   <si>
-    <t>PRDM1</t>
-  </si>
-  <si>
-    <t>PRKAB1</t>
-  </si>
-  <si>
     <t>PRODH</t>
   </si>
   <si>
@@ -467,30 +341,15 @@
     <t>PVRL4</t>
   </si>
   <si>
-    <t>PVT1</t>
-  </si>
-  <si>
     <t>PYHIN1</t>
   </si>
   <si>
-    <t>RALGDS</t>
-  </si>
-  <si>
-    <t>RGL1</t>
-  </si>
-  <si>
-    <t>RGS12</t>
-  </si>
-  <si>
     <t>RGS16</t>
   </si>
   <si>
     <t>RHBDL1</t>
   </si>
   <si>
-    <t>RHOD</t>
-  </si>
-  <si>
     <t>RIC3</t>
   </si>
   <si>
@@ -500,96 +359,48 @@
     <t>RNF208</t>
   </si>
   <si>
-    <t>RPL23AP7</t>
-  </si>
-  <si>
-    <t>RPS27L</t>
-  </si>
-  <si>
     <t>SCN3B</t>
   </si>
   <si>
-    <t>SEMA3B</t>
-  </si>
-  <si>
-    <t>SERPINE1</t>
-  </si>
-  <si>
-    <t>SERTAD1</t>
-  </si>
-  <si>
     <t>SIRPB2</t>
   </si>
   <si>
     <t>SLAMF7</t>
   </si>
   <si>
-    <t>SLC12A4</t>
-  </si>
-  <si>
     <t>SLC12A7</t>
   </si>
   <si>
-    <t>SLC25A45</t>
-  </si>
-  <si>
     <t>SLC2A12</t>
   </si>
   <si>
     <t>SLC2A13</t>
   </si>
   <si>
-    <t>SORBS1</t>
-  </si>
-  <si>
     <t>SRGAP3</t>
   </si>
   <si>
-    <t>SULF2</t>
-  </si>
-  <si>
     <t>SYTL2</t>
   </si>
   <si>
-    <t>THSD1</t>
-  </si>
-  <si>
-    <t>TLE4</t>
-  </si>
-  <si>
     <t>TLR3</t>
   </si>
   <si>
-    <t>TM7SF3</t>
-  </si>
-  <si>
     <t>TMEM27</t>
   </si>
   <si>
     <t>TMEM40</t>
   </si>
   <si>
-    <t>TMEM63B</t>
-  </si>
-  <si>
-    <t>TMEM68</t>
-  </si>
-  <si>
     <t>TNFSF14</t>
   </si>
   <si>
     <t>TP53AIP1</t>
   </si>
   <si>
-    <t>TP53TG1</t>
-  </si>
-  <si>
     <t>TP73</t>
   </si>
   <si>
-    <t>TRANK1</t>
-  </si>
-  <si>
     <t>TREM2</t>
   </si>
   <si>
@@ -602,19 +413,7 @@
     <t>WNT9A</t>
   </si>
   <si>
-    <t>ZNF337</t>
-  </si>
-  <si>
-    <t>ZNF385A</t>
-  </si>
-  <si>
     <t>ZNF596</t>
-  </si>
-  <si>
-    <t>ZNF654</t>
-  </si>
-  <si>
-    <t>ZNF658</t>
   </si>
   <si>
     <t>ZNF750</t>
@@ -630,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,28 +452,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -682,85 +484,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1044,19 +785,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U182"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1113,11 +856,9 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1">
@@ -1174,13 +915,9 @@
       <c r="S2" s="1">
         <v>4.4454100000000003E-2</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1">
@@ -1237,14 +974,10 @@
       <c r="S3" s="1">
         <v>0.231379</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>0.37834299999999998</v>
@@ -1300,14 +1033,10 @@
       <c r="S4" s="1">
         <v>28.792300000000001</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>2.9952999999999999</v>
@@ -1363,14 +1092,10 @@
       <c r="S5" s="1">
         <v>0.47618899999999997</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>4.7959700000000001E-2</v>
@@ -1426,14 +1151,10 @@
       <c r="S6" s="1">
         <v>0.24281</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>0.39099</v>
@@ -1489,14 +1210,10 @@
       <c r="S7" s="1">
         <v>1.4997999999999999E-2</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.27915200000000001</v>
@@ -1552,14 +1269,10 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>0.14586299999999999</v>
@@ -1615,14 +1328,10 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>0.76460300000000003</v>
@@ -1678,14 +1387,10 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>0.25449100000000002</v>
@@ -1741,14 +1446,10 @@
       <c r="S11" s="1">
         <v>3.8601499999999997E-2</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>9.2643799999999998E-2</v>
@@ -1804,14 +1505,10 @@
       <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <v>0.150755</v>
@@ -1867,14 +1564,10 @@
       <c r="S13" s="1">
         <v>0.53523600000000005</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>0.25425900000000001</v>
@@ -1930,14 +1623,10 @@
       <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>0.216394</v>
@@ -1993,14 +1682,10 @@
       <c r="S15" s="1">
         <v>2.9439299999999999</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>43</v>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>5.9366000000000002E-2</v>
@@ -2056,14 +1741,10 @@
       <c r="S16" s="1">
         <v>4.9034899999999999E-2</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>0.21922900000000001</v>
@@ -2119,14 +1800,10 @@
       <c r="S17" s="1">
         <v>0.20790600000000001</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>0.48063600000000001</v>
@@ -2182,14 +1859,10 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>0.43551899999999999</v>
@@ -2245,14 +1918,10 @@
       <c r="S19" s="1">
         <v>0.32929999999999998</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>6.2528600000000001</v>
@@ -2308,14 +1977,10 @@
       <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>0.80877699999999997</v>
@@ -2371,14 +2036,10 @@
       <c r="S21" s="1">
         <v>1.7439499999999999</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>1.9355600000000001E-2</v>
@@ -2434,14 +2095,10 @@
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>53</v>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>5.6598900000000001E-2</v>
@@ -2497,14 +2154,10 @@
       <c r="S23" s="1">
         <v>4.8796899999999997E-2</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>54</v>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>0.25010199999999999</v>
@@ -2560,14 +2213,10 @@
       <c r="S24" s="1">
         <v>1.0848500000000001E-2</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>55</v>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>0.20486599999999999</v>
@@ -2623,14 +2272,10 @@
       <c r="S25" s="1">
         <v>0.35407</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>6.7054799999999998E-2</v>
@@ -2686,14 +2331,10 @@
       <c r="S26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>0.16216900000000001</v>
@@ -2749,14 +2390,10 @@
       <c r="S27" s="1">
         <v>4.4236000000000004</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>59</v>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>0.659995</v>
@@ -2812,14 +2449,10 @@
       <c r="S28" s="1">
         <v>1.6930199999999999E-2</v>
       </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>7.8912300000000005E-2</v>
@@ -2875,14 +2508,10 @@
       <c r="S29" s="1">
         <v>1.6273599999999999E-2</v>
       </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>0.72998700000000005</v>
@@ -2938,14 +2567,10 @@
       <c r="S30" s="1">
         <v>5.0654999999999999E-2</v>
       </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>64</v>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>0.44637700000000002</v>
@@ -3001,14 +2626,10 @@
       <c r="S31" s="1">
         <v>1.44353E-2</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>66</v>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>0.27984999999999999</v>
@@ -3064,14 +2685,10 @@
       <c r="S32" s="1">
         <v>0.327183</v>
       </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>67</v>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>1.31985</v>
@@ -3127,14 +2744,10 @@
       <c r="S33" s="1">
         <v>0</v>
       </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>69</v>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>0.32901999999999998</v>
@@ -3190,14 +2803,10 @@
       <c r="S34" s="1">
         <v>0.31427300000000002</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>70</v>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B35" s="1">
         <v>1.8346800000000001</v>
@@ -3253,14 +2862,10 @@
       <c r="S35" s="1">
         <v>138.58699999999999</v>
       </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>71</v>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="1">
         <v>7.3922800000000002E-3</v>
@@ -3316,14 +2921,10 @@
       <c r="S36" s="1">
         <v>4.8755399999999997E-2</v>
       </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>72</v>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B37" s="1">
         <v>0.113618</v>
@@ -3379,14 +2980,10 @@
       <c r="S37" s="1">
         <v>7.1320300000000003E-2</v>
       </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>74</v>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B38" s="1">
         <v>0.88143400000000005</v>
@@ -3442,14 +3039,10 @@
       <c r="S38" s="1">
         <v>2.9190799999999999E-2</v>
       </c>
-      <c r="T38" s="1"/>
-      <c r="U38" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>76</v>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B39" s="1">
         <v>0.143821</v>
@@ -3505,14 +3098,10 @@
       <c r="S39" s="1">
         <v>0</v>
       </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>77</v>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="1">
         <v>0.62386900000000001</v>
@@ -3568,14 +3157,10 @@
       <c r="S40" s="1">
         <v>5.8376000000000001</v>
       </c>
-      <c r="T40" s="1"/>
-      <c r="U40" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>78</v>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B41" s="1">
         <v>0.93198000000000003</v>
@@ -3631,14 +3216,10 @@
       <c r="S41" s="1">
         <v>0</v>
       </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>80</v>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B42" s="1">
         <v>28.337700000000002</v>
@@ -3694,14 +3275,10 @@
       <c r="S42" s="1">
         <v>0.18701000000000001</v>
       </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>81</v>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B43" s="1">
         <v>0.33158399999999999</v>
@@ -3757,14 +3334,10 @@
       <c r="S43" s="1">
         <v>1.7026900000000001E-2</v>
       </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B44" s="1">
         <v>2.50231</v>
@@ -3820,14 +3393,10 @@
       <c r="S44" s="1">
         <v>0</v>
       </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>83</v>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>0.88380300000000001</v>
@@ -3883,14 +3452,10 @@
       <c r="S45" s="1">
         <v>0.95715399999999995</v>
       </c>
-      <c r="T45" s="1"/>
-      <c r="U45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>84</v>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>2.9106399999999999</v>
@@ -3946,14 +3511,10 @@
       <c r="S46" s="1">
         <v>0</v>
       </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>85</v>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>0.51279600000000003</v>
@@ -4009,14 +3570,10 @@
       <c r="S47" s="1">
         <v>0</v>
       </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>86</v>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>0.26027099999999997</v>
@@ -4072,14 +3629,10 @@
       <c r="S48" s="1">
         <v>67.726399999999998</v>
       </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>89</v>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>0.37038900000000002</v>
@@ -4135,14 +3688,10 @@
       <c r="S49" s="1">
         <v>1.1395500000000001</v>
       </c>
-      <c r="T49" s="1"/>
-      <c r="U49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>90</v>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>0.93577399999999999</v>
@@ -4198,14 +3747,10 @@
       <c r="S50" s="1">
         <v>10.6144</v>
       </c>
-      <c r="T50" s="1"/>
-      <c r="U50" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>91</v>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>5.6238999999999997E-2</v>
@@ -4261,14 +3806,10 @@
       <c r="S51" s="1">
         <v>0</v>
       </c>
-      <c r="T51" s="1"/>
-      <c r="U51" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>92</v>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>0.110125</v>
@@ -4324,14 +3865,10 @@
       <c r="S52" s="1">
         <v>0</v>
       </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>94</v>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>0.184503</v>
@@ -4387,14 +3924,10 @@
       <c r="S53" s="1">
         <v>0</v>
       </c>
-      <c r="T53" s="1"/>
-      <c r="U53" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>96</v>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>3.0555200000000001E-2</v>
@@ -4450,14 +3983,10 @@
       <c r="S54" s="1">
         <v>0</v>
       </c>
-      <c r="T54" s="1"/>
-      <c r="U54" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>98</v>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <v>0.55824099999999999</v>
@@ -4513,14 +4042,10 @@
       <c r="S55" s="1">
         <v>8.1528500000000004E-2</v>
       </c>
-      <c r="T55" s="1"/>
-      <c r="U55" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>100</v>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>1.1199300000000001</v>
@@ -4576,14 +4101,10 @@
       <c r="S56" s="1">
         <v>5.2002800000000002</v>
       </c>
-      <c r="T56" s="1"/>
-      <c r="U56" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>101</v>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>0.113622</v>
@@ -4639,14 +4160,10 @@
       <c r="S57" s="1">
         <v>0</v>
       </c>
-      <c r="T57" s="1"/>
-      <c r="U57" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>102</v>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>8.7174199999999993E-2</v>
@@ -4702,14 +4219,10 @@
       <c r="S58" s="1">
         <v>0</v>
       </c>
-      <c r="T58" s="1"/>
-      <c r="U58" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>104</v>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B59" s="1">
         <v>0.40129599999999999</v>
@@ -4765,14 +4278,10 @@
       <c r="S59" s="1">
         <v>0</v>
       </c>
-      <c r="T59" s="1"/>
-      <c r="U59" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>105</v>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>0.27260000000000001</v>
@@ -4828,14 +4337,10 @@
       <c r="S60" s="1">
         <v>0</v>
       </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>106</v>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B61" s="1">
         <v>0.47931000000000001</v>
@@ -4891,14 +4396,10 @@
       <c r="S61" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="T61" s="1"/>
-      <c r="U61" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>107</v>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>0.39361600000000002</v>
@@ -4954,14 +4455,10 @@
       <c r="S62" s="1">
         <v>0</v>
       </c>
-      <c r="T62" s="1"/>
-      <c r="U62" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>108</v>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B63" s="1">
         <v>0.13811799999999999</v>
@@ -5017,14 +4514,10 @@
       <c r="S63" s="1">
         <v>0.20478299999999999</v>
       </c>
-      <c r="T63" s="1"/>
-      <c r="U63" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>109</v>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>0.28961599999999998</v>
@@ -5080,14 +4573,10 @@
       <c r="S64" s="1">
         <v>0.61440399999999995</v>
       </c>
-      <c r="T64" s="1"/>
-      <c r="U64" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>113</v>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>0.23552300000000001</v>
@@ -5143,14 +4632,10 @@
       <c r="S65" s="1">
         <v>0.22350300000000001</v>
       </c>
-      <c r="T65" s="1"/>
-      <c r="U65" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>114</v>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B66" s="1">
         <v>0.38300800000000002</v>
@@ -5206,14 +4691,10 @@
       <c r="S66" s="1">
         <v>2.2350400000000001</v>
       </c>
-      <c r="T66" s="1"/>
-      <c r="U66" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>115</v>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B67" s="1">
         <v>0.85195500000000002</v>
@@ -5269,14 +4750,10 @@
       <c r="S67" s="1">
         <v>0</v>
       </c>
-      <c r="T67" s="1"/>
-      <c r="U67" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>116</v>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>0.27386100000000002</v>
@@ -5332,14 +4809,10 @@
       <c r="S68" s="1">
         <v>0.108304</v>
       </c>
-      <c r="T68" s="1"/>
-      <c r="U68" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>118</v>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B69" s="1">
         <v>2.7785299999999999</v>
@@ -5395,14 +4868,10 @@
       <c r="S69" s="1">
         <v>7.2236099999999998E-2</v>
       </c>
-      <c r="T69" s="1"/>
-      <c r="U69" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>120</v>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>0.17997199999999999</v>
@@ -5458,14 +4927,10 @@
       <c r="S70" s="1">
         <v>0.74231599999999998</v>
       </c>
-      <c r="T70" s="1"/>
-      <c r="U70" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>122</v>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>0.41853299999999999</v>
@@ -5521,14 +4986,10 @@
       <c r="S71" s="1">
         <v>0</v>
       </c>
-      <c r="T71" s="1"/>
-      <c r="U71" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>123</v>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>0.30675000000000002</v>
@@ -5584,14 +5045,10 @@
       <c r="S72" s="1">
         <v>0.33394200000000002</v>
       </c>
-      <c r="T72" s="1"/>
-      <c r="U72" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>124</v>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>1.84781</v>
@@ -5647,14 +5104,10 @@
       <c r="S73" s="1">
         <v>0</v>
       </c>
-      <c r="T73" s="1"/>
-      <c r="U73" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>125</v>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>9.2594200000000002E-2</v>
@@ -5710,14 +5163,10 @@
       <c r="S74" s="1">
         <v>6.1080099999999998E-2</v>
       </c>
-      <c r="T74" s="1"/>
-      <c r="U74" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>127</v>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>0.61576200000000003</v>
@@ -5773,14 +5222,10 @@
       <c r="S75" s="1">
         <v>0</v>
       </c>
-      <c r="T75" s="1"/>
-      <c r="U75" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>128</v>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>1.2077599999999999</v>
@@ -5836,14 +5281,10 @@
       <c r="S76" s="1">
         <v>19.2867</v>
       </c>
-      <c r="T76" s="1"/>
-      <c r="U76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>130</v>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B77" s="1">
         <v>27.805299999999999</v>
@@ -5899,14 +5340,10 @@
       <c r="S77" s="1">
         <v>0.107789</v>
       </c>
-      <c r="T77" s="1"/>
-      <c r="U77" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>131</v>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>2.8668399999999998</v>
@@ -5962,14 +5399,10 @@
       <c r="S78" s="1">
         <v>1.00777E-2</v>
       </c>
-      <c r="T78" s="1"/>
-      <c r="U78" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>132</v>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B79" s="1">
         <v>2.4371499999999999</v>
@@ -6025,14 +5458,10 @@
       <c r="S79" s="1">
         <v>4.3541100000000004</v>
       </c>
-      <c r="T79" s="1"/>
-      <c r="U79" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>135</v>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B80" s="1">
         <v>0.55758300000000005</v>
@@ -6088,14 +5517,10 @@
       <c r="S80" s="1">
         <v>0.30896099999999999</v>
       </c>
-      <c r="T80" s="1"/>
-      <c r="U80" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>24</v>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B81" s="1">
         <v>2.75522</v>
@@ -6151,14 +5576,10 @@
       <c r="S81" s="1">
         <v>1.5129800000000001E-2</v>
       </c>
-      <c r="T81" s="1"/>
-      <c r="U81" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>137</v>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B82" s="1">
         <v>1.42662</v>
@@ -6214,14 +5635,10 @@
       <c r="S82" s="1">
         <v>3.1797499999999999</v>
       </c>
-      <c r="T82" s="1"/>
-      <c r="U82" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>140</v>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B83" s="1">
         <v>0.16932900000000001</v>
@@ -6277,14 +5694,10 @@
       <c r="S83" s="1">
         <v>5.08698E-2</v>
       </c>
-      <c r="T83" s="1"/>
-      <c r="U83" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>143</v>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B84" s="1">
         <v>0.65372200000000003</v>
@@ -6340,14 +5753,10 @@
       <c r="S84" s="1">
         <v>1.9619399999999999E-2</v>
       </c>
-      <c r="T84" s="1"/>
-      <c r="U84" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>144</v>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B85" s="1">
         <v>4.9150299999999998</v>
@@ -6403,14 +5812,10 @@
       <c r="S85" s="1">
         <v>0.179531</v>
       </c>
-      <c r="T85" s="1"/>
-      <c r="U85" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>145</v>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B86" s="1">
         <v>0.89654800000000001</v>
@@ -6466,14 +5871,10 @@
       <c r="S86" s="1">
         <v>0.201991</v>
       </c>
-      <c r="T86" s="1"/>
-      <c r="U86" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>147</v>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B87" s="1">
         <v>0.108485</v>
@@ -6529,14 +5930,10 @@
       <c r="S87" s="1">
         <v>0</v>
       </c>
-      <c r="T87" s="1"/>
-      <c r="U87" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>151</v>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B88" s="1">
         <v>1.24091</v>
@@ -6592,14 +5989,10 @@
       <c r="S88" s="1">
         <v>0</v>
       </c>
-      <c r="T88" s="1"/>
-      <c r="U88" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>152</v>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B89" s="1">
         <v>9.4131300000000001E-2</v>
@@ -6655,14 +6048,10 @@
       <c r="S89" s="1">
         <v>0.31109399999999998</v>
       </c>
-      <c r="T89" s="1"/>
-      <c r="U89" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>154</v>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B90" s="1">
         <v>1.8977899999999999E-2</v>
@@ -6718,14 +6107,10 @@
       <c r="S90" s="1">
         <v>0</v>
       </c>
-      <c r="T90" s="1"/>
-      <c r="U90" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>155</v>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B91" s="1">
         <v>1.18276</v>
@@ -6781,14 +6166,10 @@
       <c r="S91" s="1">
         <v>0</v>
       </c>
-      <c r="T91" s="1"/>
-      <c r="U91" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>156</v>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B92" s="1">
         <v>0.340696</v>
@@ -6844,14 +6225,10 @@
       <c r="S92" s="1">
         <v>3.5875400000000002</v>
       </c>
-      <c r="T92" s="1"/>
-      <c r="U92" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>159</v>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B93" s="1">
         <v>0.112941</v>
@@ -6907,14 +6284,10 @@
       <c r="S93" s="1">
         <v>1.3236600000000001</v>
       </c>
-      <c r="T93" s="1"/>
-      <c r="U93" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>163</v>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B94" s="1">
         <v>0.53739199999999998</v>
@@ -6970,14 +6343,10 @@
       <c r="S94" s="1">
         <v>4.3608200000000004</v>
       </c>
-      <c r="T94" s="1"/>
-      <c r="U94" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>164</v>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B95" s="1">
         <v>0.72831999999999997</v>
@@ -7033,14 +6402,10 @@
       <c r="S95" s="1">
         <v>0</v>
       </c>
-      <c r="T95" s="1"/>
-      <c r="U95" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>166</v>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B96" s="1">
         <v>0.85936400000000002</v>
@@ -7096,14 +6461,10 @@
       <c r="S96" s="1">
         <v>9.1460699999999999</v>
       </c>
-      <c r="T96" s="1"/>
-      <c r="U96" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
-        <v>168</v>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B97" s="1">
         <v>0.14197000000000001</v>
@@ -7159,14 +6520,10 @@
       <c r="S97" s="1">
         <v>0.33127200000000001</v>
       </c>
-      <c r="T97" s="1"/>
-      <c r="U97" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>169</v>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B98" s="1">
         <v>1.48336</v>
@@ -7222,14 +6579,10 @@
       <c r="S98" s="1">
         <v>0.99459600000000004</v>
       </c>
-      <c r="T98" s="1"/>
-      <c r="U98" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>171</v>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B99" s="1">
         <v>1.52179</v>
@@ -7285,14 +6638,10 @@
       <c r="S99" s="1">
         <v>4.0557099999999997E-3</v>
       </c>
-      <c r="T99" s="1"/>
-      <c r="U99" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>173</v>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B100" s="1">
         <v>0.37977899999999998</v>
@@ -7348,14 +6697,10 @@
       <c r="S100" s="1">
         <v>8.3832299999999998E-2</v>
       </c>
-      <c r="T100" s="1"/>
-      <c r="U100" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>176</v>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B101" s="1">
         <v>5.7880799999999999</v>
@@ -7411,14 +6756,10 @@
       <c r="S101" s="1">
         <v>0.333754</v>
       </c>
-      <c r="T101" s="1"/>
-      <c r="U101" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>178</v>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B102" s="1">
         <v>0.17019000000000001</v>
@@ -7474,14 +6815,10 @@
       <c r="S102" s="1">
         <v>0.28121400000000002</v>
       </c>
-      <c r="T102" s="1"/>
-      <c r="U102" s="2" t="s">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="B103" s="1">
         <v>2.0611000000000002</v>
@@ -7537,14 +6874,10 @@
       <c r="S103" s="1">
         <v>0</v>
       </c>
-      <c r="T103" s="1"/>
-      <c r="U103" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>182</v>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B104" s="1">
         <v>3.6737600000000001</v>
@@ -7600,14 +6933,10 @@
       <c r="S104" s="1">
         <v>0</v>
       </c>
-      <c r="T104" s="1"/>
-      <c r="U104" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>183</v>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B105" s="1">
         <v>0.59349099999999999</v>
@@ -7663,14 +6992,10 @@
       <c r="S105" s="1">
         <v>0</v>
       </c>
-      <c r="T105" s="1"/>
-      <c r="U105" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>185</v>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B106" s="1">
         <v>3.2826099999999997E-2</v>
@@ -7726,14 +7051,10 @@
       <c r="S106" s="1">
         <v>0</v>
       </c>
-      <c r="T106" s="1"/>
-      <c r="U106" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
-        <v>187</v>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B107" s="1">
         <v>0.175568</v>
@@ -7789,14 +7110,10 @@
       <c r="S107" s="1">
         <v>0</v>
       </c>
-      <c r="T107" s="1"/>
-      <c r="U107" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>188</v>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B108" s="1">
         <v>2.7922799999999999</v>
@@ -7852,14 +7169,10 @@
       <c r="S108" s="1">
         <v>0</v>
       </c>
-      <c r="T108" s="1"/>
-      <c r="U108" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>189</v>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B109" s="1">
         <v>0.46287200000000001</v>
@@ -7915,14 +7228,10 @@
       <c r="S109" s="1">
         <v>0</v>
       </c>
-      <c r="T109" s="1"/>
-      <c r="U109" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>190</v>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B110" s="1">
         <v>1.25125</v>
@@ -7978,14 +7287,10 @@
       <c r="S110" s="1">
         <v>1.0182199999999999</v>
       </c>
-      <c r="T110" s="1"/>
-      <c r="U110" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>193</v>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B111" s="1">
         <v>0.99074700000000004</v>
@@ -8041,14 +7346,10 @@
       <c r="S111" s="1">
         <v>0.95309200000000005</v>
       </c>
-      <c r="T111" s="1"/>
-      <c r="U111" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>196</v>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B112" s="1">
         <v>5.6969600000000002E-2</v>
@@ -8104,14 +7405,10 @@
       <c r="S112" s="1">
         <v>0.234792</v>
       </c>
-      <c r="T112" s="1"/>
-      <c r="U112" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>197</v>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B113" s="1">
         <v>4.1198399999999999</v>
@@ -8167,14 +7464,10 @@
       <c r="S113" s="1">
         <v>4.6602499999999996</v>
       </c>
-      <c r="T113" s="1"/>
-      <c r="U113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="B114" s="1">
         <v>0.162767</v>
@@ -8230,4168 +7523,10 @@
       <c r="S114" s="1">
         <v>0.19190499999999999</v>
       </c>
-      <c r="T114" s="1"/>
-      <c r="U114" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1.40354</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1.26156</v>
-      </c>
-      <c r="D115" s="1">
-        <v>1.24505</v>
-      </c>
-      <c r="E115" s="1">
-        <v>2.8780700000000001</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2.7433999999999998</v>
-      </c>
-      <c r="G115" s="1">
-        <v>2.8170999999999999</v>
-      </c>
-      <c r="H115" s="1">
-        <v>1.88252</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1.8988</v>
-      </c>
-      <c r="J115" s="1">
-        <v>1.9077299999999999</v>
-      </c>
-      <c r="K115" s="1">
-        <v>2.42808</v>
-      </c>
-      <c r="L115" s="1">
-        <v>2.5467599999999999</v>
-      </c>
-      <c r="M115" s="1">
-        <v>2.1356000000000002</v>
-      </c>
-      <c r="N115" s="1">
-        <v>0.28230499999999997</v>
-      </c>
-      <c r="O115" s="1">
-        <v>0.15530099999999999</v>
-      </c>
-      <c r="P115" s="1">
-        <v>9.8389400000000002E-2</v>
-      </c>
-      <c r="Q115" s="1">
-        <v>0.27676000000000001</v>
-      </c>
-      <c r="R115" s="1">
-        <v>0.20810600000000001</v>
-      </c>
-      <c r="S115" s="1">
-        <v>0.268507</v>
-      </c>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="1">
-        <v>22.2087</v>
-      </c>
-      <c r="C116" s="1">
-        <v>13.9925</v>
-      </c>
-      <c r="D116" s="1">
-        <v>18.916499999999999</v>
-      </c>
-      <c r="E116" s="1">
-        <v>53.903700000000001</v>
-      </c>
-      <c r="F116" s="1">
-        <v>54.704500000000003</v>
-      </c>
-      <c r="G116" s="1">
-        <v>55.703200000000002</v>
-      </c>
-      <c r="H116" s="1">
-        <v>27.610800000000001</v>
-      </c>
-      <c r="I116" s="1">
-        <v>27.381399999999999</v>
-      </c>
-      <c r="J116" s="1">
-        <v>26.914999999999999</v>
-      </c>
-      <c r="K116" s="1">
-        <v>36.5685</v>
-      </c>
-      <c r="L116" s="1">
-        <v>37.816200000000002</v>
-      </c>
-      <c r="M116" s="1">
-        <v>38.376199999999997</v>
-      </c>
-      <c r="N116" s="1">
-        <v>6.1397300000000001</v>
-      </c>
-      <c r="O116" s="1">
-        <v>5.9998399999999998</v>
-      </c>
-      <c r="P116" s="1">
-        <v>4.2053700000000003</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>8.1346500000000006</v>
-      </c>
-      <c r="R116" s="1">
-        <v>10.2508</v>
-      </c>
-      <c r="S116" s="1">
-        <v>11.4688</v>
-      </c>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1.1444799999999999</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.97028499999999995</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0.97541199999999995</v>
-      </c>
-      <c r="E117" s="1">
-        <v>2.2631700000000001</v>
-      </c>
-      <c r="F117" s="1">
-        <v>2.24756</v>
-      </c>
-      <c r="G117" s="1">
-        <v>2.0281099999999999</v>
-      </c>
-      <c r="H117" s="1">
-        <v>1.5338799999999999</v>
-      </c>
-      <c r="I117" s="1">
-        <v>1.3179399999999999</v>
-      </c>
-      <c r="J117" s="1">
-        <v>1.33592</v>
-      </c>
-      <c r="K117" s="1">
-        <v>1.0852900000000001</v>
-      </c>
-      <c r="L117" s="1">
-        <v>0.94599299999999997</v>
-      </c>
-      <c r="M117" s="1">
-        <v>1.23654</v>
-      </c>
-      <c r="N117" s="1">
-        <v>0.97992000000000001</v>
-      </c>
-      <c r="O117" s="1">
-        <v>1.87917</v>
-      </c>
-      <c r="P117" s="1">
-        <v>1.3779699999999999</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>2.1197400000000002</v>
-      </c>
-      <c r="R117" s="1">
-        <v>2.0493199999999998</v>
-      </c>
-      <c r="S117" s="1">
-        <v>1.6648099999999999</v>
-      </c>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="1">
-        <v>45.706299999999999</v>
-      </c>
-      <c r="C118" s="1">
-        <v>51.727499999999999</v>
-      </c>
-      <c r="D118" s="1">
-        <v>51.5244</v>
-      </c>
-      <c r="E118" s="1">
-        <v>144.988</v>
-      </c>
-      <c r="F118" s="1">
-        <v>142.197</v>
-      </c>
-      <c r="G118" s="1">
-        <v>140</v>
-      </c>
-      <c r="H118" s="1">
-        <v>66.7029</v>
-      </c>
-      <c r="I118" s="1">
-        <v>62.774700000000003</v>
-      </c>
-      <c r="J118" s="1">
-        <v>71.223600000000005</v>
-      </c>
-      <c r="K118" s="1">
-        <v>104.97499999999999</v>
-      </c>
-      <c r="L118" s="1">
-        <v>107.8</v>
-      </c>
-      <c r="M118" s="1">
-        <v>98.753500000000003</v>
-      </c>
-      <c r="N118" s="1">
-        <v>112.006</v>
-      </c>
-      <c r="O118" s="1">
-        <v>115.045</v>
-      </c>
-      <c r="P118" s="1">
-        <v>105.931</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>140.32900000000001</v>
-      </c>
-      <c r="R118" s="1">
-        <v>149.38399999999999</v>
-      </c>
-      <c r="S118" s="1">
-        <v>157.45500000000001</v>
-      </c>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.45064900000000002</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.28943799999999997</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0.207563</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1.2051400000000001</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1.3110200000000001</v>
-      </c>
-      <c r="G119" s="1">
-        <v>1.2811999999999999</v>
-      </c>
-      <c r="H119" s="1">
-        <v>1.55128</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1.72783</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0.56920300000000001</v>
-      </c>
-      <c r="K119" s="1">
-        <v>2.1342400000000001</v>
-      </c>
-      <c r="L119" s="1">
-        <v>1.7470699999999999</v>
-      </c>
-      <c r="M119" s="1">
-        <v>1.7450699999999999</v>
-      </c>
-      <c r="N119" s="1">
-        <v>3.3178299999999998</v>
-      </c>
-      <c r="O119" s="1">
-        <v>4.81189</v>
-      </c>
-      <c r="P119" s="1">
-        <v>2.4049399999999999</v>
-      </c>
-      <c r="Q119" s="1">
-        <v>2.8319299999999998</v>
-      </c>
-      <c r="R119" s="1">
-        <v>3.2598199999999999</v>
-      </c>
-      <c r="S119" s="1">
-        <v>4.6732800000000001</v>
-      </c>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0.100592</v>
-      </c>
-      <c r="C120" s="1">
-        <v>8.74331E-2</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.13581299999999999</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0.79786900000000005</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0.80625400000000003</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.78392499999999998</v>
-      </c>
-      <c r="H120" s="1">
-        <v>8.0788499999999992</v>
-      </c>
-      <c r="I120" s="1">
-        <v>7.8879400000000004</v>
-      </c>
-      <c r="J120" s="1">
-        <v>7.2542299999999997</v>
-      </c>
-      <c r="K120" s="1">
-        <v>10.9437</v>
-      </c>
-      <c r="L120" s="1">
-        <v>11.4313</v>
-      </c>
-      <c r="M120" s="1">
-        <v>10.874000000000001</v>
-      </c>
-      <c r="N120" s="1">
-        <v>9.3924299999999992</v>
-      </c>
-      <c r="O120" s="1">
-        <v>9.3385800000000003</v>
-      </c>
-      <c r="P120" s="1">
-        <v>8.5718099999999993</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>11.965</v>
-      </c>
-      <c r="R120" s="1">
-        <v>13.679</v>
-      </c>
-      <c r="S120" s="1">
-        <v>14.007899999999999</v>
-      </c>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.196908</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.177588</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.13838900000000001</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1.3583700000000001</v>
-      </c>
-      <c r="F121" s="1">
-        <v>0.84513000000000005</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.99042200000000002</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.27549099999999999</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.26848899999999998</v>
-      </c>
-      <c r="J121" s="1">
-        <v>0.14579500000000001</v>
-      </c>
-      <c r="K121" s="1">
-        <v>0.54483899999999996</v>
-      </c>
-      <c r="L121" s="1">
-        <v>0.43091800000000002</v>
-      </c>
-      <c r="M121" s="1">
-        <v>0.22861999999999999</v>
-      </c>
-      <c r="N121" s="1">
-        <v>0.29014200000000001</v>
-      </c>
-      <c r="O121" s="1">
-        <v>0.52361599999999997</v>
-      </c>
-      <c r="P121" s="1">
-        <v>0.27069199999999999</v>
-      </c>
-      <c r="Q121" s="1">
-        <v>0.31726300000000002</v>
-      </c>
-      <c r="R121" s="1">
-        <v>0.238562</v>
-      </c>
-      <c r="S121" s="1">
-        <v>0.46170299999999997</v>
-      </c>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.18277399999999999</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.16454099999999999</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.23386100000000001</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0.51572099999999998</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0.33191799999999999</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.44572000000000001</v>
-      </c>
-      <c r="H122" s="1">
-        <v>3.7928999999999999</v>
-      </c>
-      <c r="I122" s="1">
-        <v>3.2388400000000002</v>
-      </c>
-      <c r="J122" s="1">
-        <v>4.0466600000000001</v>
-      </c>
-      <c r="K122" s="1">
-        <v>4.8007799999999996</v>
-      </c>
-      <c r="L122" s="1">
-        <v>5.4897999999999998</v>
-      </c>
-      <c r="M122" s="1">
-        <v>4.7423599999999997</v>
-      </c>
-      <c r="N122" s="1">
-        <v>0.721078</v>
-      </c>
-      <c r="O122" s="1">
-        <v>0.79972100000000002</v>
-      </c>
-      <c r="P122" s="1">
-        <v>0.97725700000000004</v>
-      </c>
-      <c r="Q122" s="1">
-        <v>0.84124500000000002</v>
-      </c>
-      <c r="R122" s="1">
-        <v>1.43641</v>
-      </c>
-      <c r="S122" s="1">
-        <v>1.5318700000000001</v>
-      </c>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.25818999999999998</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.25313400000000003</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.23891599999999999</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0.71604199999999996</v>
-      </c>
-      <c r="F123" s="1">
-        <v>0.363263</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.66411100000000001</v>
-      </c>
-      <c r="H123" s="1">
-        <v>1.7196400000000001</v>
-      </c>
-      <c r="I123" s="1">
-        <v>1.9495899999999999</v>
-      </c>
-      <c r="J123" s="1">
-        <v>1.11886</v>
-      </c>
-      <c r="K123" s="1">
-        <v>3.18424</v>
-      </c>
-      <c r="L123" s="1">
-        <v>2.32239</v>
-      </c>
-      <c r="M123" s="1">
-        <v>1.9814400000000001</v>
-      </c>
-      <c r="N123" s="1">
-        <v>0.10352</v>
-      </c>
-      <c r="O123" s="1">
-        <v>0.88553400000000004</v>
-      </c>
-      <c r="P123" s="1">
-        <v>0.51961299999999999</v>
-      </c>
-      <c r="Q123" s="1">
-        <v>0.72894099999999995</v>
-      </c>
-      <c r="R123" s="1">
-        <v>0.77891699999999997</v>
-      </c>
-      <c r="S123" s="1">
-        <v>0.13111800000000001</v>
-      </c>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="1">
-        <v>2.6322700000000001</v>
-      </c>
-      <c r="C124" s="1">
-        <v>2.32605</v>
-      </c>
-      <c r="D124" s="1">
-        <v>2.3548300000000002</v>
-      </c>
-      <c r="E124" s="1">
-        <v>5.0078699999999996</v>
-      </c>
-      <c r="F124" s="1">
-        <v>4.6044600000000004</v>
-      </c>
-      <c r="G124" s="1">
-        <v>5.1391799999999996</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0.145621</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0.13575200000000001</v>
-      </c>
-      <c r="J124" s="1">
-        <v>9.9539600000000006E-2</v>
-      </c>
-      <c r="K124" s="1">
-        <v>0.14901600000000001</v>
-      </c>
-      <c r="L124" s="1">
-        <v>0.105128</v>
-      </c>
-      <c r="M124" s="1">
-        <v>0.139405</v>
-      </c>
-      <c r="N124" s="1">
-        <v>0.20690700000000001</v>
-      </c>
-      <c r="O124" s="1">
-        <v>0.35768</v>
-      </c>
-      <c r="P124" s="1">
-        <v>0.23171900000000001</v>
-      </c>
-      <c r="Q124" s="1">
-        <v>0.44720199999999999</v>
-      </c>
-      <c r="R124" s="1">
-        <v>0.44223800000000002</v>
-      </c>
-      <c r="S124" s="1">
-        <v>0.50924599999999998</v>
-      </c>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" s="1">
-        <v>13.634499999999999</v>
-      </c>
-      <c r="C125" s="1">
-        <v>13.3581</v>
-      </c>
-      <c r="D125" s="1">
-        <v>13.718</v>
-      </c>
-      <c r="E125" s="1">
-        <v>31.685199999999998</v>
-      </c>
-      <c r="F125" s="1">
-        <v>31.160399999999999</v>
-      </c>
-      <c r="G125" s="1">
-        <v>30.661799999999999</v>
-      </c>
-      <c r="H125" s="1">
-        <v>10.1183</v>
-      </c>
-      <c r="I125" s="1">
-        <v>10.053000000000001</v>
-      </c>
-      <c r="J125" s="1">
-        <v>9.5619399999999999</v>
-      </c>
-      <c r="K125" s="1">
-        <v>14.5305</v>
-      </c>
-      <c r="L125" s="1">
-        <v>15.341200000000001</v>
-      </c>
-      <c r="M125" s="1">
-        <v>13.282500000000001</v>
-      </c>
-      <c r="N125" s="1">
-        <v>11.047700000000001</v>
-      </c>
-      <c r="O125" s="1">
-        <v>10.120699999999999</v>
-      </c>
-      <c r="P125" s="1">
-        <v>10.1936</v>
-      </c>
-      <c r="Q125" s="1">
-        <v>16.208200000000001</v>
-      </c>
-      <c r="R125" s="1">
-        <v>18.337900000000001</v>
-      </c>
-      <c r="S125" s="1">
-        <v>19.320499999999999</v>
-      </c>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="1">
-        <v>4.0751999999999997</v>
-      </c>
-      <c r="C126" s="1">
-        <v>4.7567899999999996</v>
-      </c>
-      <c r="D126" s="1">
-        <v>4.8443199999999997</v>
-      </c>
-      <c r="E126" s="1">
-        <v>9.2023600000000005</v>
-      </c>
-      <c r="F126" s="1">
-        <v>9.1090400000000002</v>
-      </c>
-      <c r="G126" s="1">
-        <v>9.3500200000000007</v>
-      </c>
-      <c r="H126" s="1">
-        <v>2.7892299999999999</v>
-      </c>
-      <c r="I126" s="1">
-        <v>2.8151899999999999</v>
-      </c>
-      <c r="J126" s="1">
-        <v>2.7792300000000001</v>
-      </c>
-      <c r="K126" s="1">
-        <v>3.5261300000000002</v>
-      </c>
-      <c r="L126" s="1">
-        <v>3.1311200000000001</v>
-      </c>
-      <c r="M126" s="1">
-        <v>3.4243700000000001</v>
-      </c>
-      <c r="N126" s="1">
-        <v>3.6242100000000002</v>
-      </c>
-      <c r="O126" s="1">
-        <v>3.46271</v>
-      </c>
-      <c r="P126" s="1">
-        <v>3.84884</v>
-      </c>
-      <c r="Q126" s="1">
-        <v>4.7287800000000004</v>
-      </c>
-      <c r="R126" s="1">
-        <v>4.47743</v>
-      </c>
-      <c r="S126" s="1">
-        <v>4.4720700000000004</v>
-      </c>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="1">
-        <v>6.42157</v>
-      </c>
-      <c r="C127" s="1">
-        <v>5.5391500000000002</v>
-      </c>
-      <c r="D127" s="1">
-        <v>6.4268099999999997</v>
-      </c>
-      <c r="E127" s="1">
-        <v>14.576499999999999</v>
-      </c>
-      <c r="F127" s="1">
-        <v>15.236599999999999</v>
-      </c>
-      <c r="G127" s="1">
-        <v>14.6248</v>
-      </c>
-      <c r="H127" s="1">
-        <v>6.3292599999999997</v>
-      </c>
-      <c r="I127" s="1">
-        <v>6.4473099999999999</v>
-      </c>
-      <c r="J127" s="1">
-        <v>6.6428099999999999</v>
-      </c>
-      <c r="K127" s="1">
-        <v>7.1466900000000004</v>
-      </c>
-      <c r="L127" s="1">
-        <v>6.7387199999999998</v>
-      </c>
-      <c r="M127" s="1">
-        <v>6.5225999999999997</v>
-      </c>
-      <c r="N127" s="1">
-        <v>7.3710699999999996</v>
-      </c>
-      <c r="O127" s="1">
-        <v>6.9442500000000003</v>
-      </c>
-      <c r="P127" s="1">
-        <v>7.0493600000000001</v>
-      </c>
-      <c r="Q127" s="1">
-        <v>10.2857</v>
-      </c>
-      <c r="R127" s="1">
-        <v>10.1265</v>
-      </c>
-      <c r="S127" s="1">
-        <v>10.093400000000001</v>
-      </c>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.451347</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.51886100000000002</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.57106400000000002</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1.6081099999999999</v>
-      </c>
-      <c r="F128" s="1">
-        <v>1.40815</v>
-      </c>
-      <c r="G128" s="1">
-        <v>1.43764</v>
-      </c>
-      <c r="H128" s="1">
-        <v>1.56013</v>
-      </c>
-      <c r="I128" s="1">
-        <v>1.42056</v>
-      </c>
-      <c r="J128" s="1">
-        <v>1.6251100000000001</v>
-      </c>
-      <c r="K128" s="1">
-        <v>2.4418000000000002</v>
-      </c>
-      <c r="L128" s="1">
-        <v>2.2704200000000001</v>
-      </c>
-      <c r="M128" s="1">
-        <v>1.6870799999999999</v>
-      </c>
-      <c r="N128" s="1">
-        <v>0.221806</v>
-      </c>
-      <c r="O128" s="1">
-        <v>0.36753200000000003</v>
-      </c>
-      <c r="P128" s="1">
-        <v>0.29284500000000002</v>
-      </c>
-      <c r="Q128" s="1">
-        <v>0.37671300000000002</v>
-      </c>
-      <c r="R128" s="1">
-        <v>0.34596500000000002</v>
-      </c>
-      <c r="S128" s="1">
-        <v>0.76931499999999997</v>
-      </c>
-      <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" s="1">
-        <v>22.642700000000001</v>
-      </c>
-      <c r="C129" s="1">
-        <v>19.2742</v>
-      </c>
-      <c r="D129" s="1">
-        <v>23.429600000000001</v>
-      </c>
-      <c r="E129" s="1">
-        <v>58.118499999999997</v>
-      </c>
-      <c r="F129" s="1">
-        <v>57.717100000000002</v>
-      </c>
-      <c r="G129" s="1">
-        <v>54.112699999999997</v>
-      </c>
-      <c r="H129" s="1">
-        <v>58.234499999999997</v>
-      </c>
-      <c r="I129" s="1">
-        <v>58.557200000000002</v>
-      </c>
-      <c r="J129" s="1">
-        <v>56.277700000000003</v>
-      </c>
-      <c r="K129" s="1">
-        <v>60.984699999999997</v>
-      </c>
-      <c r="L129" s="1">
-        <v>63.479599999999998</v>
-      </c>
-      <c r="M129" s="1">
-        <v>62.704500000000003</v>
-      </c>
-      <c r="N129" s="1">
-        <v>35.5154</v>
-      </c>
-      <c r="O129" s="1">
-        <v>35.704900000000002</v>
-      </c>
-      <c r="P129" s="1">
-        <v>36.926499999999997</v>
-      </c>
-      <c r="Q129" s="1">
-        <v>51.402099999999997</v>
-      </c>
-      <c r="R129" s="1">
-        <v>53.259700000000002</v>
-      </c>
-      <c r="S129" s="1">
-        <v>49.195799999999998</v>
-      </c>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B130" s="1">
-        <v>29.686499999999999</v>
-      </c>
-      <c r="C130" s="1">
-        <v>30.259599999999999</v>
-      </c>
-      <c r="D130" s="1">
-        <v>29.2499</v>
-      </c>
-      <c r="E130" s="1">
-        <v>77.466999999999999</v>
-      </c>
-      <c r="F130" s="1">
-        <v>70.043999999999997</v>
-      </c>
-      <c r="G130" s="1">
-        <v>81.080299999999994</v>
-      </c>
-      <c r="H130" s="1">
-        <v>7.6300999999999997</v>
-      </c>
-      <c r="I130" s="1">
-        <v>8.1815599999999993</v>
-      </c>
-      <c r="J130" s="1">
-        <v>7.32944</v>
-      </c>
-      <c r="K130" s="1">
-        <v>13.4801</v>
-      </c>
-      <c r="L130" s="1">
-        <v>11.7042</v>
-      </c>
-      <c r="M130" s="1">
-        <v>11.120799999999999</v>
-      </c>
-      <c r="N130" s="1">
-        <v>0.26491900000000002</v>
-      </c>
-      <c r="O130" s="1">
-        <v>0.36560199999999998</v>
-      </c>
-      <c r="P130" s="1">
-        <v>0.42526000000000003</v>
-      </c>
-      <c r="Q130" s="1">
-        <v>0.49226900000000001</v>
-      </c>
-      <c r="R130" s="1">
-        <v>0.64962299999999995</v>
-      </c>
-      <c r="S130" s="1">
-        <v>0.513409</v>
-      </c>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0.203517</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.29620099999999999</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0.202183</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1.0442400000000001</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1.18441</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1.0965800000000001</v>
-      </c>
-      <c r="H131" s="1">
-        <v>7.3277900000000007E-2</v>
-      </c>
-      <c r="I131" s="1">
-        <v>2.6234199999999999E-2</v>
-      </c>
-      <c r="J131" s="1">
-        <v>3.9887899999999997E-2</v>
-      </c>
-      <c r="K131" s="1">
-        <v>3.2404799999999997E-2</v>
-      </c>
-      <c r="L131" s="1">
-        <v>7.8596399999999997E-2</v>
-      </c>
-      <c r="M131" s="1">
-        <v>5.2123200000000001E-2</v>
-      </c>
-      <c r="N131" s="1">
-        <v>20.119700000000002</v>
-      </c>
-      <c r="O131" s="1">
-        <v>20.695699999999999</v>
-      </c>
-      <c r="P131" s="1">
-        <v>20.9009</v>
-      </c>
-      <c r="Q131" s="1">
-        <v>22.953700000000001</v>
-      </c>
-      <c r="R131" s="1">
-        <v>25.465399999999999</v>
-      </c>
-      <c r="S131" s="1">
-        <v>27.805299999999999</v>
-      </c>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="1">
-        <v>2.8457599999999998</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2.2974399999999999</v>
-      </c>
-      <c r="D132" s="1">
-        <v>3.0998100000000002</v>
-      </c>
-      <c r="E132" s="1">
-        <v>5.8276399999999997</v>
-      </c>
-      <c r="F132" s="1">
-        <v>5.6966200000000002</v>
-      </c>
-      <c r="G132" s="1">
-        <v>5.7535600000000002</v>
-      </c>
-      <c r="H132" s="1">
-        <v>11.103199999999999</v>
-      </c>
-      <c r="I132" s="1">
-        <v>12.1982</v>
-      </c>
-      <c r="J132" s="1">
-        <v>9.8395899999999994</v>
-      </c>
-      <c r="K132" s="1">
-        <v>14.5954</v>
-      </c>
-      <c r="L132" s="1">
-        <v>12.6517</v>
-      </c>
-      <c r="M132" s="1">
-        <v>13.639799999999999</v>
-      </c>
-      <c r="N132" s="1">
-        <v>7.7234600000000002</v>
-      </c>
-      <c r="O132" s="1">
-        <v>8.5354600000000005</v>
-      </c>
-      <c r="P132" s="1">
-        <v>7.2551800000000002</v>
-      </c>
-      <c r="Q132" s="1">
-        <v>5.6890799999999997</v>
-      </c>
-      <c r="R132" s="1">
-        <v>8.6195400000000006</v>
-      </c>
-      <c r="S132" s="1">
-        <v>8.8652899999999999</v>
-      </c>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B133" s="1">
-        <v>41.183500000000002</v>
-      </c>
-      <c r="C133" s="1">
-        <v>36.028100000000002</v>
-      </c>
-      <c r="D133" s="1">
-        <v>40.806100000000001</v>
-      </c>
-      <c r="E133" s="1">
-        <v>100.16800000000001</v>
-      </c>
-      <c r="F133" s="1">
-        <v>105.345</v>
-      </c>
-      <c r="G133" s="1">
-        <v>100.089</v>
-      </c>
-      <c r="H133" s="1">
-        <v>10.9564</v>
-      </c>
-      <c r="I133" s="1">
-        <v>11.229100000000001</v>
-      </c>
-      <c r="J133" s="1">
-        <v>11.651</v>
-      </c>
-      <c r="K133" s="1">
-        <v>12.9504</v>
-      </c>
-      <c r="L133" s="1">
-        <v>13.4946</v>
-      </c>
-      <c r="M133" s="1">
-        <v>12.937799999999999</v>
-      </c>
-      <c r="N133" s="1">
-        <v>13.0943</v>
-      </c>
-      <c r="O133" s="1">
-        <v>12.7936</v>
-      </c>
-      <c r="P133" s="1">
-        <v>13.699199999999999</v>
-      </c>
-      <c r="Q133" s="1">
-        <v>14.0853</v>
-      </c>
-      <c r="R133" s="1">
-        <v>14.178900000000001</v>
-      </c>
-      <c r="S133" s="1">
-        <v>14.238899999999999</v>
-      </c>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="1">
-        <v>3.3306</v>
-      </c>
-      <c r="C134" s="1">
-        <v>3.4974099999999999</v>
-      </c>
-      <c r="D134" s="1">
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="E134" s="1">
-        <v>9.8421000000000003</v>
-      </c>
-      <c r="F134" s="1">
-        <v>8.9814900000000009</v>
-      </c>
-      <c r="G134" s="1">
-        <v>10.0853</v>
-      </c>
-      <c r="H134" s="1">
-        <v>3.4807499999999998E-2</v>
-      </c>
-      <c r="I134" s="1">
-        <v>9.6922299999999996E-3</v>
-      </c>
-      <c r="J134" s="1">
-        <v>4.42098E-2</v>
-      </c>
-      <c r="K134" s="1">
-        <v>3.5915900000000001E-2</v>
-      </c>
-      <c r="L134" s="1">
-        <v>0</v>
-      </c>
-      <c r="M134" s="1">
-        <v>0</v>
-      </c>
-      <c r="N134" s="1">
-        <v>14.832599999999999</v>
-      </c>
-      <c r="O134" s="1">
-        <v>14.1524</v>
-      </c>
-      <c r="P134" s="1">
-        <v>14.4557</v>
-      </c>
-      <c r="Q134" s="1">
-        <v>25.004300000000001</v>
-      </c>
-      <c r="R134" s="1">
-        <v>25.897600000000001</v>
-      </c>
-      <c r="S134" s="1">
-        <v>22.910499999999999</v>
-      </c>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0.316529</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.206346</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0.184915</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0.58342300000000002</v>
-      </c>
-      <c r="F135" s="1">
-        <v>0.59801800000000005</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.342667</v>
-      </c>
-      <c r="H135" s="1">
-        <v>9.0265400000000007</v>
-      </c>
-      <c r="I135" s="1">
-        <v>6.9364100000000004</v>
-      </c>
-      <c r="J135" s="1">
-        <v>8.5707699999999996</v>
-      </c>
-      <c r="K135" s="1">
-        <v>13.993600000000001</v>
-      </c>
-      <c r="L135" s="1">
-        <v>14.105399999999999</v>
-      </c>
-      <c r="M135" s="1">
-        <v>10.8725</v>
-      </c>
-      <c r="N135" s="1">
-        <v>0.59637899999999999</v>
-      </c>
-      <c r="O135" s="1">
-        <v>0.53967600000000004</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0.38749299999999998</v>
-      </c>
-      <c r="Q135" s="1">
-        <v>0.77375099999999997</v>
-      </c>
-      <c r="R135" s="1">
-        <v>0.79683000000000004</v>
-      </c>
-      <c r="S135" s="1">
-        <v>0.48957299999999998</v>
-      </c>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="1">
-        <v>68.463700000000003</v>
-      </c>
-      <c r="C136" s="1">
-        <v>67.569999999999993</v>
-      </c>
-      <c r="D136" s="1">
-        <v>66.951700000000002</v>
-      </c>
-      <c r="E136" s="1">
-        <v>162.71</v>
-      </c>
-      <c r="F136" s="1">
-        <v>174.16800000000001</v>
-      </c>
-      <c r="G136" s="1">
-        <v>156.166</v>
-      </c>
-      <c r="H136" s="1">
-        <v>1.7284999999999998E-2</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0</v>
-      </c>
-      <c r="J136" s="1">
-        <v>0</v>
-      </c>
-      <c r="K136" s="1">
-        <v>0</v>
-      </c>
-      <c r="L136" s="1">
-        <v>4.8666399999999999E-2</v>
-      </c>
-      <c r="M136" s="1">
-        <v>4.3032500000000001E-2</v>
-      </c>
-      <c r="N136" s="1">
-        <v>0.33607799999999999</v>
-      </c>
-      <c r="O136" s="1">
-        <v>0.33115800000000001</v>
-      </c>
-      <c r="P136" s="1">
-        <v>0.543485</v>
-      </c>
-      <c r="Q136" s="1">
-        <v>0.82277599999999995</v>
-      </c>
-      <c r="R136" s="1">
-        <v>0.53884699999999996</v>
-      </c>
-      <c r="S136" s="1">
-        <v>0.57936799999999999</v>
-      </c>
-      <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0.67336300000000004</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.73161200000000004</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.33749899999999999</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1.40981</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1.1467400000000001</v>
-      </c>
-      <c r="G137" s="1">
-        <v>1.1405099999999999</v>
-      </c>
-      <c r="H137" s="1">
-        <v>0.12490800000000001</v>
-      </c>
-      <c r="I137" s="1">
-        <v>0.20869099999999999</v>
-      </c>
-      <c r="J137" s="1">
-        <v>0.39663700000000002</v>
-      </c>
-      <c r="K137" s="1">
-        <v>0.36079299999999997</v>
-      </c>
-      <c r="L137" s="1">
-        <v>0.117227</v>
-      </c>
-      <c r="M137" s="1">
-        <v>0</v>
-      </c>
-      <c r="N137" s="1">
-        <v>0.42502699999999999</v>
-      </c>
-      <c r="O137" s="1">
-        <v>0.34188000000000002</v>
-      </c>
-      <c r="P137" s="1">
-        <v>0.24547099999999999</v>
-      </c>
-      <c r="Q137" s="1">
-        <v>0.57541500000000001</v>
-      </c>
-      <c r="R137" s="1">
-        <v>0.64901500000000001</v>
-      </c>
-      <c r="S137" s="1">
-        <v>0.74525600000000003</v>
-      </c>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" s="1">
-        <v>8.9916</v>
-      </c>
-      <c r="C138" s="1">
-        <v>8.3852399999999996</v>
-      </c>
-      <c r="D138" s="1">
-        <v>9.1293799999999994</v>
-      </c>
-      <c r="E138" s="1">
-        <v>19.4223</v>
-      </c>
-      <c r="F138" s="1">
-        <v>18.238099999999999</v>
-      </c>
-      <c r="G138" s="1">
-        <v>16.805</v>
-      </c>
-      <c r="H138" s="1">
-        <v>6.0930400000000002</v>
-      </c>
-      <c r="I138" s="1">
-        <v>5.87758</v>
-      </c>
-      <c r="J138" s="1">
-        <v>5.7465999999999999</v>
-      </c>
-      <c r="K138" s="1">
-        <v>7.9710999999999999</v>
-      </c>
-      <c r="L138" s="1">
-        <v>8.0244300000000006</v>
-      </c>
-      <c r="M138" s="1">
-        <v>7.9984000000000002</v>
-      </c>
-      <c r="N138" s="1">
-        <v>8.2240699999999993</v>
-      </c>
-      <c r="O138" s="1">
-        <v>9.0247499999999992</v>
-      </c>
-      <c r="P138" s="1">
-        <v>7.7776100000000001</v>
-      </c>
-      <c r="Q138" s="1">
-        <v>13.093999999999999</v>
-      </c>
-      <c r="R138" s="1">
-        <v>14.971399999999999</v>
-      </c>
-      <c r="S138" s="1">
-        <v>14.918799999999999</v>
-      </c>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B139" s="1">
-        <v>0.22827600000000001</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.236623</v>
-      </c>
-      <c r="D139" s="1">
-        <v>0.17224300000000001</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0.72089000000000003</v>
-      </c>
-      <c r="F139" s="1">
-        <v>0.62790699999999999</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.78232100000000004</v>
-      </c>
-      <c r="H139" s="1">
-        <v>0.92204200000000003</v>
-      </c>
-      <c r="I139" s="1">
-        <v>0.77023399999999997</v>
-      </c>
-      <c r="J139" s="1">
-        <v>1.32446</v>
-      </c>
-      <c r="K139" s="1">
-        <v>1.5630200000000001</v>
-      </c>
-      <c r="L139" s="1">
-        <v>1.24651</v>
-      </c>
-      <c r="M139" s="1">
-        <v>1.26617</v>
-      </c>
-      <c r="N139" s="1">
-        <v>3.9163199999999998</v>
-      </c>
-      <c r="O139" s="1">
-        <v>3.44489</v>
-      </c>
-      <c r="P139" s="1">
-        <v>3.0846399999999998</v>
-      </c>
-      <c r="Q139" s="1">
-        <v>3.7754500000000002</v>
-      </c>
-      <c r="R139" s="1">
-        <v>4.1062700000000003</v>
-      </c>
-      <c r="S139" s="1">
-        <v>3.7691599999999998</v>
-      </c>
-      <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1.3369599999999999</v>
-      </c>
-      <c r="C140" s="1">
-        <v>1.0816699999999999</v>
-      </c>
-      <c r="D140" s="1">
-        <v>1.3808100000000001</v>
-      </c>
-      <c r="E140" s="1">
-        <v>2.6696200000000001</v>
-      </c>
-      <c r="F140" s="1">
-        <v>2.79027</v>
-      </c>
-      <c r="G140" s="1">
-        <v>2.2334800000000001</v>
-      </c>
-      <c r="H140" s="1">
-        <v>0.323938</v>
-      </c>
-      <c r="I140" s="1">
-        <v>0.23194600000000001</v>
-      </c>
-      <c r="J140" s="1">
-        <v>0.44082900000000003</v>
-      </c>
-      <c r="K140" s="1">
-        <v>0.33425300000000002</v>
-      </c>
-      <c r="L140" s="1">
-        <v>0.32573400000000002</v>
-      </c>
-      <c r="M140" s="1">
-        <v>0.21121799999999999</v>
-      </c>
-      <c r="N140" s="1">
-        <v>89.122699999999995</v>
-      </c>
-      <c r="O140" s="1">
-        <v>81.356300000000005</v>
-      </c>
-      <c r="P140" s="1">
-        <v>92.873800000000003</v>
-      </c>
-      <c r="Q140" s="1">
-        <v>109.27</v>
-      </c>
-      <c r="R140" s="1">
-        <v>109.68899999999999</v>
-      </c>
-      <c r="S140" s="1">
-        <v>97.497200000000007</v>
-      </c>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="1">
-        <v>19.5107</v>
-      </c>
-      <c r="C141" s="1">
-        <v>23.843299999999999</v>
-      </c>
-      <c r="D141" s="1">
-        <v>21.688099999999999</v>
-      </c>
-      <c r="E141" s="1">
-        <v>50.268900000000002</v>
-      </c>
-      <c r="F141" s="1">
-        <v>48.591000000000001</v>
-      </c>
-      <c r="G141" s="1">
-        <v>47.7913</v>
-      </c>
-      <c r="H141" s="1">
-        <v>8.2456300000000002</v>
-      </c>
-      <c r="I141" s="1">
-        <v>8.3642400000000006</v>
-      </c>
-      <c r="J141" s="1">
-        <v>8.0504800000000003</v>
-      </c>
-      <c r="K141" s="1">
-        <v>8.4919799999999999</v>
-      </c>
-      <c r="L141" s="1">
-        <v>9.6083700000000007</v>
-      </c>
-      <c r="M141" s="1">
-        <v>9.0898599999999998</v>
-      </c>
-      <c r="N141" s="1">
-        <v>36.536200000000001</v>
-      </c>
-      <c r="O141" s="1">
-        <v>39.087699999999998</v>
-      </c>
-      <c r="P141" s="1">
-        <v>36.290900000000001</v>
-      </c>
-      <c r="Q141" s="1">
-        <v>42.753</v>
-      </c>
-      <c r="R141" s="1">
-        <v>43.722200000000001</v>
-      </c>
-      <c r="S141" s="1">
-        <v>43.788400000000003</v>
-      </c>
-      <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B142" s="1">
-        <v>1.0044</v>
-      </c>
-      <c r="C142" s="1">
-        <v>1.3411299999999999</v>
-      </c>
-      <c r="D142" s="1">
-        <v>0.92330400000000001</v>
-      </c>
-      <c r="E142" s="1">
-        <v>2.9208099999999999</v>
-      </c>
-      <c r="F142" s="1">
-        <v>2.98956</v>
-      </c>
-      <c r="G142" s="1">
-        <v>2.8207900000000001</v>
-      </c>
-      <c r="H142" s="1">
-        <v>2.4579499999999999</v>
-      </c>
-      <c r="I142" s="1">
-        <v>1.4010499999999999</v>
-      </c>
-      <c r="J142" s="1">
-        <v>2.2404199999999999</v>
-      </c>
-      <c r="K142" s="1">
-        <v>2.6555800000000001</v>
-      </c>
-      <c r="L142" s="1">
-        <v>2.4424999999999999</v>
-      </c>
-      <c r="M142" s="1">
-        <v>1.82379</v>
-      </c>
-      <c r="N142" s="1">
-        <v>1.0120400000000001</v>
-      </c>
-      <c r="O142" s="1">
-        <v>0.71230300000000002</v>
-      </c>
-      <c r="P142" s="1">
-        <v>1.02288</v>
-      </c>
-      <c r="Q142" s="1">
-        <v>0.95464700000000002</v>
-      </c>
-      <c r="R142" s="1">
-        <v>1.6827399999999999</v>
-      </c>
-      <c r="S142" s="1">
-        <v>1.1631100000000001</v>
-      </c>
-      <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B143" s="1">
-        <v>0.21590799999999999</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.21204000000000001</v>
-      </c>
-      <c r="D143" s="1">
-        <v>0.209673</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0.67532300000000001</v>
-      </c>
-      <c r="F143" s="1">
-        <v>0.56573300000000004</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.43376700000000001</v>
-      </c>
-      <c r="H143" s="1">
-        <v>0.58689499999999994</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0.34500199999999998</v>
-      </c>
-      <c r="J143" s="1">
-        <v>0.33130100000000001</v>
-      </c>
-      <c r="K143" s="1">
-        <v>0.65044199999999996</v>
-      </c>
-      <c r="L143" s="1">
-        <v>0.67320599999999997</v>
-      </c>
-      <c r="M143" s="1">
-        <v>0.66742699999999999</v>
-      </c>
-      <c r="N143" s="1">
-        <v>0.31697700000000001</v>
-      </c>
-      <c r="O143" s="1">
-        <v>0.41644900000000001</v>
-      </c>
-      <c r="P143" s="1">
-        <v>0.32037300000000002</v>
-      </c>
-      <c r="Q143" s="1">
-        <v>0.56740800000000002</v>
-      </c>
-      <c r="R143" s="1">
-        <v>0.49692799999999998</v>
-      </c>
-      <c r="S143" s="1">
-        <v>0.58286899999999997</v>
-      </c>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B144" s="1">
-        <v>3.4297</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2.5053299999999998</v>
-      </c>
-      <c r="D144" s="1">
-        <v>2.9344100000000002</v>
-      </c>
-      <c r="E144" s="1">
-        <v>7.0387300000000002</v>
-      </c>
-      <c r="F144" s="1">
-        <v>6.1786700000000003</v>
-      </c>
-      <c r="G144" s="1">
-        <v>6.7227600000000001</v>
-      </c>
-      <c r="H144" s="1">
-        <v>1.18811</v>
-      </c>
-      <c r="I144" s="1">
-        <v>1.3150599999999999</v>
-      </c>
-      <c r="J144" s="1">
-        <v>1.3581399999999999</v>
-      </c>
-      <c r="K144" s="1">
-        <v>1.93086</v>
-      </c>
-      <c r="L144" s="1">
-        <v>2.2579799999999999</v>
-      </c>
-      <c r="M144" s="1">
-        <v>1.4296500000000001</v>
-      </c>
-      <c r="N144" s="1">
-        <v>3.2918699999999999</v>
-      </c>
-      <c r="O144" s="1">
-        <v>3.0350199999999998</v>
-      </c>
-      <c r="P144" s="1">
-        <v>2.2764600000000002</v>
-      </c>
-      <c r="Q144" s="1">
-        <v>3.51186</v>
-      </c>
-      <c r="R144" s="1">
-        <v>3.98163</v>
-      </c>
-      <c r="S144" s="1">
-        <v>4.33636</v>
-      </c>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
-        <v>42797</v>
-      </c>
-      <c r="B145" s="1">
-        <v>0.94140699999999999</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.74571699999999996</v>
-      </c>
-      <c r="D145" s="1">
-        <v>0.98229900000000003</v>
-      </c>
-      <c r="E145" s="1">
-        <v>2.0269300000000001</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1.90161</v>
-      </c>
-      <c r="G145" s="1">
-        <v>1.9772799999999999</v>
-      </c>
-      <c r="H145" s="1">
-        <v>2.7288899999999998</v>
-      </c>
-      <c r="I145" s="1">
-        <v>2.0496400000000001</v>
-      </c>
-      <c r="J145" s="1">
-        <v>1.9610399999999999</v>
-      </c>
-      <c r="K145" s="1">
-        <v>2.1118399999999999</v>
-      </c>
-      <c r="L145" s="1">
-        <v>2.2802600000000002</v>
-      </c>
-      <c r="M145" s="1">
-        <v>1.84744</v>
-      </c>
-      <c r="N145" s="1">
-        <v>16.8368</v>
-      </c>
-      <c r="O145" s="1">
-        <v>16.182500000000001</v>
-      </c>
-      <c r="P145" s="1">
-        <v>16.746700000000001</v>
-      </c>
-      <c r="Q145" s="1">
-        <v>20.51</v>
-      </c>
-      <c r="R145" s="1">
-        <v>19.750399999999999</v>
-      </c>
-      <c r="S145" s="1">
-        <v>19.202999999999999</v>
-      </c>
-      <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B146" s="1">
-        <v>0.228634</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.21562000000000001</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0.22405800000000001</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0.47731200000000001</v>
-      </c>
-      <c r="F146" s="1">
-        <v>0.52485700000000002</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.51495299999999999</v>
-      </c>
-      <c r="H146" s="1">
-        <v>2.9302299999999999</v>
-      </c>
-      <c r="I146" s="1">
-        <v>3.0303399999999998</v>
-      </c>
-      <c r="J146" s="1">
-        <v>3.7867600000000001</v>
-      </c>
-      <c r="K146" s="1">
-        <v>3.1291600000000002</v>
-      </c>
-      <c r="L146" s="1">
-        <v>3.62669</v>
-      </c>
-      <c r="M146" s="1">
-        <v>3.6528299999999998</v>
-      </c>
-      <c r="N146" s="1">
-        <v>1.3496999999999999</v>
-      </c>
-      <c r="O146" s="1">
-        <v>1.6401699999999999</v>
-      </c>
-      <c r="P146" s="1">
-        <v>1.82935</v>
-      </c>
-      <c r="Q146" s="1">
-        <v>1.8763700000000001</v>
-      </c>
-      <c r="R146" s="1">
-        <v>1.8681700000000001</v>
-      </c>
-      <c r="S146" s="1">
-        <v>2.0015100000000001</v>
-      </c>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" s="1">
-        <v>0.82466399999999995</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.85333400000000004</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0.61292800000000003</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1.4514499999999999</v>
-      </c>
-      <c r="F147" s="1">
-        <v>1.3534299999999999</v>
-      </c>
-      <c r="G147" s="1">
-        <v>2.0832099999999998</v>
-      </c>
-      <c r="H147" s="1">
-        <v>1.53739</v>
-      </c>
-      <c r="I147" s="1">
-        <v>1.54112</v>
-      </c>
-      <c r="J147" s="1">
-        <v>1.5621400000000001</v>
-      </c>
-      <c r="K147" s="1">
-        <v>2.9611800000000001</v>
-      </c>
-      <c r="L147" s="1">
-        <v>2.4047499999999999</v>
-      </c>
-      <c r="M147" s="1">
-        <v>2.0413100000000002</v>
-      </c>
-      <c r="N147" s="1">
-        <v>2.2917200000000002</v>
-      </c>
-      <c r="O147" s="1">
-        <v>2.5246599999999999</v>
-      </c>
-      <c r="P147" s="1">
-        <v>3.7261600000000001</v>
-      </c>
-      <c r="Q147" s="1">
-        <v>2.5180400000000001</v>
-      </c>
-      <c r="R147" s="1">
-        <v>3.1951200000000002</v>
-      </c>
-      <c r="S147" s="1">
-        <v>2.2139199999999999</v>
-      </c>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B148" s="1">
-        <v>86.737899999999996</v>
-      </c>
-      <c r="C148" s="1">
-        <v>74.706000000000003</v>
-      </c>
-      <c r="D148" s="1">
-        <v>90.242199999999997</v>
-      </c>
-      <c r="E148" s="1">
-        <v>175.81399999999999</v>
-      </c>
-      <c r="F148" s="1">
-        <v>174.52500000000001</v>
-      </c>
-      <c r="G148" s="1">
-        <v>171.01499999999999</v>
-      </c>
-      <c r="H148" s="1">
-        <v>57.3185</v>
-      </c>
-      <c r="I148" s="1">
-        <v>55.939399999999999</v>
-      </c>
-      <c r="J148" s="1">
-        <v>55.122900000000001</v>
-      </c>
-      <c r="K148" s="1">
-        <v>51.784700000000001</v>
-      </c>
-      <c r="L148" s="1">
-        <v>53.886400000000002</v>
-      </c>
-      <c r="M148" s="1">
-        <v>52.694000000000003</v>
-      </c>
-      <c r="N148" s="1">
-        <v>85.645499999999998</v>
-      </c>
-      <c r="O148" s="1">
-        <v>83.596299999999999</v>
-      </c>
-      <c r="P148" s="1">
-        <v>84.641499999999994</v>
-      </c>
-      <c r="Q148" s="1">
-        <v>103.178</v>
-      </c>
-      <c r="R148" s="1">
-        <v>109.271</v>
-      </c>
-      <c r="S148" s="1">
-        <v>107.58</v>
-      </c>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B149" s="1">
-        <v>20.146799999999999</v>
-      </c>
-      <c r="C149" s="1">
-        <v>17.332799999999999</v>
-      </c>
-      <c r="D149" s="1">
-        <v>19.350100000000001</v>
-      </c>
-      <c r="E149" s="1">
-        <v>73.736099999999993</v>
-      </c>
-      <c r="F149" s="1">
-        <v>71.755399999999995</v>
-      </c>
-      <c r="G149" s="1">
-        <v>69.167900000000003</v>
-      </c>
-      <c r="H149" s="1">
-        <v>12.534000000000001</v>
-      </c>
-      <c r="I149" s="1">
-        <v>13.7286</v>
-      </c>
-      <c r="J149" s="1">
-        <v>13.3592</v>
-      </c>
-      <c r="K149" s="1">
-        <v>15.2393</v>
-      </c>
-      <c r="L149" s="1">
-        <v>16.452000000000002</v>
-      </c>
-      <c r="M149" s="1">
-        <v>16.838699999999999</v>
-      </c>
-      <c r="N149" s="1">
-        <v>28.034199999999998</v>
-      </c>
-      <c r="O149" s="1">
-        <v>26.828099999999999</v>
-      </c>
-      <c r="P149" s="1">
-        <v>28.291399999999999</v>
-      </c>
-      <c r="Q149" s="1">
-        <v>39.0974</v>
-      </c>
-      <c r="R149" s="1">
-        <v>46.0413</v>
-      </c>
-      <c r="S149" s="1">
-        <v>46.810499999999998</v>
-      </c>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B150" s="1">
-        <v>7.5507400000000002</v>
-      </c>
-      <c r="C150" s="1">
-        <v>6.9857100000000001</v>
-      </c>
-      <c r="D150" s="1">
-        <v>7.3979799999999996</v>
-      </c>
-      <c r="E150" s="1">
-        <v>20.292999999999999</v>
-      </c>
-      <c r="F150" s="1">
-        <v>19.058499999999999</v>
-      </c>
-      <c r="G150" s="1">
-        <v>18.9193</v>
-      </c>
-      <c r="H150" s="1">
-        <v>4.4853899999999998</v>
-      </c>
-      <c r="I150" s="1">
-        <v>4.41676</v>
-      </c>
-      <c r="J150" s="1">
-        <v>3.9228399999999999</v>
-      </c>
-      <c r="K150" s="1">
-        <v>5.6211200000000003</v>
-      </c>
-      <c r="L150" s="1">
-        <v>5.4719499999999996</v>
-      </c>
-      <c r="M150" s="1">
-        <v>5.6198600000000001</v>
-      </c>
-      <c r="N150" s="1">
-        <v>21.495899999999999</v>
-      </c>
-      <c r="O150" s="1">
-        <v>23.117699999999999</v>
-      </c>
-      <c r="P150" s="1">
-        <v>20.312999999999999</v>
-      </c>
-      <c r="Q150" s="1">
-        <v>21.7105</v>
-      </c>
-      <c r="R150" s="1">
-        <v>21.5307</v>
-      </c>
-      <c r="S150" s="1">
-        <v>22.777899999999999</v>
-      </c>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" s="1">
-        <v>2.0042300000000002</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2.7157300000000002</v>
-      </c>
-      <c r="D151" s="1">
-        <v>2.21408</v>
-      </c>
-      <c r="E151" s="1">
-        <v>5.4791299999999996</v>
-      </c>
-      <c r="F151" s="1">
-        <v>5.9238799999999996</v>
-      </c>
-      <c r="G151" s="1">
-        <v>5.6693499999999997</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0.72608200000000001</v>
-      </c>
-      <c r="I151" s="1">
-        <v>0.95313099999999995</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0.85634100000000002</v>
-      </c>
-      <c r="K151" s="1">
-        <v>1.5251600000000001</v>
-      </c>
-      <c r="L151" s="1">
-        <v>1.5210600000000001</v>
-      </c>
-      <c r="M151" s="1">
-        <v>1.79688</v>
-      </c>
-      <c r="N151" s="1">
-        <v>0.16386300000000001</v>
-      </c>
-      <c r="O151" s="1">
-        <v>0.33120899999999998</v>
-      </c>
-      <c r="P151" s="1">
-        <v>0.280277</v>
-      </c>
-      <c r="Q151" s="1">
-        <v>0.54749499999999995</v>
-      </c>
-      <c r="R151" s="1">
-        <v>0.48503600000000002</v>
-      </c>
-      <c r="S151" s="1">
-        <v>0.51185400000000003</v>
-      </c>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B152" s="1">
-        <v>1.20932</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1.0879799999999999</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0.98688799999999999</v>
-      </c>
-      <c r="E152" s="1">
-        <v>2.3227099999999998</v>
-      </c>
-      <c r="F152" s="1">
-        <v>1.98245</v>
-      </c>
-      <c r="G152" s="1">
-        <v>2.2726500000000001</v>
-      </c>
-      <c r="H152" s="1">
-        <v>1.94794</v>
-      </c>
-      <c r="I152" s="1">
-        <v>1.9307399999999999</v>
-      </c>
-      <c r="J152" s="1">
-        <v>2.34592</v>
-      </c>
-      <c r="K152" s="1">
-        <v>2.23908</v>
-      </c>
-      <c r="L152" s="1">
-        <v>2.3775400000000002</v>
-      </c>
-      <c r="M152" s="1">
-        <v>2.99851</v>
-      </c>
-      <c r="N152" s="1">
-        <v>45.625799999999998</v>
-      </c>
-      <c r="O152" s="1">
-        <v>44.124499999999998</v>
-      </c>
-      <c r="P152" s="1">
-        <v>41.622100000000003</v>
-      </c>
-      <c r="Q152" s="1">
-        <v>52.6999</v>
-      </c>
-      <c r="R152" s="1">
-        <v>47.342700000000001</v>
-      </c>
-      <c r="S152" s="1">
-        <v>48.542299999999997</v>
-      </c>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B153" s="1">
-        <v>1.02139</v>
-      </c>
-      <c r="C153" s="1">
-        <v>1.05267</v>
-      </c>
-      <c r="D153" s="1">
-        <v>0.87115900000000002</v>
-      </c>
-      <c r="E153" s="1">
-        <v>2.4168699999999999</v>
-      </c>
-      <c r="F153" s="1">
-        <v>2.47282</v>
-      </c>
-      <c r="G153" s="1">
-        <v>2.4867699999999999</v>
-      </c>
-      <c r="H153" s="1">
-        <v>2.0208499999999998</v>
-      </c>
-      <c r="I153" s="1">
-        <v>2.2441800000000001</v>
-      </c>
-      <c r="J153" s="1">
-        <v>2.2000199999999999</v>
-      </c>
-      <c r="K153" s="1">
-        <v>2.5518299999999998</v>
-      </c>
-      <c r="L153" s="1">
-        <v>2.6273300000000002</v>
-      </c>
-      <c r="M153" s="1">
-        <v>2.5832899999999999</v>
-      </c>
-      <c r="N153" s="1">
-        <v>5.4917499999999997</v>
-      </c>
-      <c r="O153" s="1">
-        <v>5.11869</v>
-      </c>
-      <c r="P153" s="1">
-        <v>5.7347999999999999</v>
-      </c>
-      <c r="Q153" s="1">
-        <v>8.9433900000000008</v>
-      </c>
-      <c r="R153" s="1">
-        <v>10.5139</v>
-      </c>
-      <c r="S153" s="1">
-        <v>9.3411299999999997</v>
-      </c>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B154" s="1">
-        <v>9.3347999999999995</v>
-      </c>
-      <c r="C154" s="1">
-        <v>7.4335300000000002</v>
-      </c>
-      <c r="D154" s="1">
-        <v>8.8903499999999998</v>
-      </c>
-      <c r="E154" s="1">
-        <v>23.848700000000001</v>
-      </c>
-      <c r="F154" s="1">
-        <v>24.611899999999999</v>
-      </c>
-      <c r="G154" s="1">
-        <v>25.715499999999999</v>
-      </c>
-      <c r="H154" s="1">
-        <v>13.9438</v>
-      </c>
-      <c r="I154" s="1">
-        <v>13.44</v>
-      </c>
-      <c r="J154" s="1">
-        <v>13.1113</v>
-      </c>
-      <c r="K154" s="1">
-        <v>20.456600000000002</v>
-      </c>
-      <c r="L154" s="1">
-        <v>20.0322</v>
-      </c>
-      <c r="M154" s="1">
-        <v>23.484000000000002</v>
-      </c>
-      <c r="N154" s="1">
-        <v>87.642499999999998</v>
-      </c>
-      <c r="O154" s="1">
-        <v>84.774900000000002</v>
-      </c>
-      <c r="P154" s="1">
-        <v>90.5137</v>
-      </c>
-      <c r="Q154" s="1">
-        <v>137.001</v>
-      </c>
-      <c r="R154" s="1">
-        <v>135.09</v>
-      </c>
-      <c r="S154" s="1">
-        <v>139.48099999999999</v>
-      </c>
-      <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B155" s="1">
-        <v>0.91018399999999999</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0.93151499999999998</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1.21065</v>
-      </c>
-      <c r="E155" s="1">
-        <v>2.43513</v>
-      </c>
-      <c r="F155" s="1">
-        <v>2.0065599999999999</v>
-      </c>
-      <c r="G155" s="1">
-        <v>2.4066200000000002</v>
-      </c>
-      <c r="H155" s="1">
-        <v>1.19038</v>
-      </c>
-      <c r="I155" s="1">
-        <v>1.6811700000000001</v>
-      </c>
-      <c r="J155" s="1">
-        <v>1.35277</v>
-      </c>
-      <c r="K155" s="1">
-        <v>2.4402499999999998</v>
-      </c>
-      <c r="L155" s="1">
-        <v>2.1386599999999998</v>
-      </c>
-      <c r="M155" s="1">
-        <v>1.7869299999999999</v>
-      </c>
-      <c r="N155" s="1">
-        <v>4.2251799999999999</v>
-      </c>
-      <c r="O155" s="1">
-        <v>5.1585099999999997</v>
-      </c>
-      <c r="P155" s="1">
-        <v>3.62392</v>
-      </c>
-      <c r="Q155" s="1">
-        <v>4.6052999999999997</v>
-      </c>
-      <c r="R155" s="1">
-        <v>4.4184200000000002</v>
-      </c>
-      <c r="S155" s="1">
-        <v>5.0747799999999996</v>
-      </c>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1.9986200000000001</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1.6525799999999999</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1.9262300000000001</v>
-      </c>
-      <c r="E156" s="1">
-        <v>4.7988400000000002</v>
-      </c>
-      <c r="F156" s="1">
-        <v>4.9543299999999997</v>
-      </c>
-      <c r="G156" s="1">
-        <v>4.8894599999999997</v>
-      </c>
-      <c r="H156" s="1">
-        <v>5.8653199999999996</v>
-      </c>
-      <c r="I156" s="1">
-        <v>5.9422100000000002</v>
-      </c>
-      <c r="J156" s="1">
-        <v>5.9241299999999999</v>
-      </c>
-      <c r="K156" s="1">
-        <v>7.73834</v>
-      </c>
-      <c r="L156" s="1">
-        <v>8.8318300000000001</v>
-      </c>
-      <c r="M156" s="1">
-        <v>8.3996399999999998</v>
-      </c>
-      <c r="N156" s="1">
-        <v>3.68099</v>
-      </c>
-      <c r="O156" s="1">
-        <v>3.7373699999999999</v>
-      </c>
-      <c r="P156" s="1">
-        <v>3.3441800000000002</v>
-      </c>
-      <c r="Q156" s="1">
-        <v>5.1981900000000003</v>
-      </c>
-      <c r="R156" s="1">
-        <v>6.2871300000000003</v>
-      </c>
-      <c r="S156" s="1">
-        <v>6.11008</v>
-      </c>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B157" s="1">
-        <v>7.1923000000000004</v>
-      </c>
-      <c r="C157" s="1">
-        <v>5.3152200000000001</v>
-      </c>
-      <c r="D157" s="1">
-        <v>6.9023099999999999</v>
-      </c>
-      <c r="E157" s="1">
-        <v>15.3733</v>
-      </c>
-      <c r="F157" s="1">
-        <v>15.8285</v>
-      </c>
-      <c r="G157" s="1">
-        <v>14.569900000000001</v>
-      </c>
-      <c r="H157" s="1">
-        <v>11.277100000000001</v>
-      </c>
-      <c r="I157" s="1">
-        <v>9.8681800000000006</v>
-      </c>
-      <c r="J157" s="1">
-        <v>10.320399999999999</v>
-      </c>
-      <c r="K157" s="1">
-        <v>13.184799999999999</v>
-      </c>
-      <c r="L157" s="1">
-        <v>12.897600000000001</v>
-      </c>
-      <c r="M157" s="1">
-        <v>13.201499999999999</v>
-      </c>
-      <c r="N157" s="1">
-        <v>15.0067</v>
-      </c>
-      <c r="O157" s="1">
-        <v>12.1074</v>
-      </c>
-      <c r="P157" s="1">
-        <v>13.250500000000001</v>
-      </c>
-      <c r="Q157" s="1">
-        <v>17.151399999999999</v>
-      </c>
-      <c r="R157" s="1">
-        <v>18.112500000000001</v>
-      </c>
-      <c r="S157" s="1">
-        <v>18.061299999999999</v>
-      </c>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B158" s="1">
-        <v>6.0768800000000001</v>
-      </c>
-      <c r="C158" s="1">
-        <v>5.0782299999999996</v>
-      </c>
-      <c r="D158" s="1">
-        <v>5.5052199999999996</v>
-      </c>
-      <c r="E158" s="1">
-        <v>13.9048</v>
-      </c>
-      <c r="F158" s="1">
-        <v>12.244</v>
-      </c>
-      <c r="G158" s="1">
-        <v>12.9185</v>
-      </c>
-      <c r="H158" s="1">
-        <v>1.9718500000000001</v>
-      </c>
-      <c r="I158" s="1">
-        <v>1.3455999999999999</v>
-      </c>
-      <c r="J158" s="1">
-        <v>1.6931700000000001</v>
-      </c>
-      <c r="K158" s="1">
-        <v>2.95166</v>
-      </c>
-      <c r="L158" s="1">
-        <v>2.0851799999999998</v>
-      </c>
-      <c r="M158" s="1">
-        <v>2.1434000000000002</v>
-      </c>
-      <c r="N158" s="1">
-        <v>6.1288799999999997</v>
-      </c>
-      <c r="O158" s="1">
-        <v>6.2836600000000002</v>
-      </c>
-      <c r="P158" s="1">
-        <v>4.5572100000000004</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>7.8466199999999997</v>
-      </c>
-      <c r="R158" s="1">
-        <v>7.4457500000000003</v>
-      </c>
-      <c r="S158" s="1">
-        <v>9.8054000000000006</v>
-      </c>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B159" s="1">
-        <v>4.5362</v>
-      </c>
-      <c r="C159" s="1">
-        <v>4.1097400000000004</v>
-      </c>
-      <c r="D159" s="1">
-        <v>4.7719100000000001</v>
-      </c>
-      <c r="E159" s="1">
-        <v>9.5703600000000009</v>
-      </c>
-      <c r="F159" s="1">
-        <v>9.1690000000000005</v>
-      </c>
-      <c r="G159" s="1">
-        <v>9.5246700000000004</v>
-      </c>
-      <c r="H159" s="1">
-        <v>7.8402500000000002</v>
-      </c>
-      <c r="I159" s="1">
-        <v>7.8455199999999996</v>
-      </c>
-      <c r="J159" s="1">
-        <v>7.5514000000000001</v>
-      </c>
-      <c r="K159" s="1">
-        <v>10.200900000000001</v>
-      </c>
-      <c r="L159" s="1">
-        <v>10.8269</v>
-      </c>
-      <c r="M159" s="1">
-        <v>10.3001</v>
-      </c>
-      <c r="N159" s="1">
-        <v>23.5092</v>
-      </c>
-      <c r="O159" s="1">
-        <v>23.549499999999998</v>
-      </c>
-      <c r="P159" s="1">
-        <v>21.101199999999999</v>
-      </c>
-      <c r="Q159" s="1">
-        <v>26.365300000000001</v>
-      </c>
-      <c r="R159" s="1">
-        <v>28.08</v>
-      </c>
-      <c r="S159" s="1">
-        <v>26.469899999999999</v>
-      </c>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B160" s="1">
-        <v>2.8083900000000002</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2.2989899999999999</v>
-      </c>
-      <c r="D160" s="1">
-        <v>2.6786400000000001</v>
-      </c>
-      <c r="E160" s="1">
-        <v>5.3679600000000001</v>
-      </c>
-      <c r="F160" s="1">
-        <v>6.0807799999999999</v>
-      </c>
-      <c r="G160" s="1">
-        <v>5.2482699999999998</v>
-      </c>
-      <c r="H160" s="1">
-        <v>10.5335</v>
-      </c>
-      <c r="I160" s="1">
-        <v>10.432600000000001</v>
-      </c>
-      <c r="J160" s="1">
-        <v>10.225899999999999</v>
-      </c>
-      <c r="K160" s="1">
-        <v>13.6876</v>
-      </c>
-      <c r="L160" s="1">
-        <v>12.3415</v>
-      </c>
-      <c r="M160" s="1">
-        <v>12.9251</v>
-      </c>
-      <c r="N160" s="1">
-        <v>33.255499999999998</v>
-      </c>
-      <c r="O160" s="1">
-        <v>33.044499999999999</v>
-      </c>
-      <c r="P160" s="1">
-        <v>30.758099999999999</v>
-      </c>
-      <c r="Q160" s="1">
-        <v>42.569600000000001</v>
-      </c>
-      <c r="R160" s="1">
-        <v>45.685499999999998</v>
-      </c>
-      <c r="S160" s="1">
-        <v>44.641300000000001</v>
-      </c>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A161" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B161" s="1">
-        <v>6.6230799999999999</v>
-      </c>
-      <c r="C161" s="1">
-        <v>6.4209699999999996</v>
-      </c>
-      <c r="D161" s="1">
-        <v>6.5217599999999996</v>
-      </c>
-      <c r="E161" s="1">
-        <v>24.85</v>
-      </c>
-      <c r="F161" s="1">
-        <v>23.6008</v>
-      </c>
-      <c r="G161" s="1">
-        <v>25.247</v>
-      </c>
-      <c r="H161" s="1">
-        <v>5.7298999999999998</v>
-      </c>
-      <c r="I161" s="1">
-        <v>6.0100800000000003</v>
-      </c>
-      <c r="J161" s="1">
-        <v>5.5513500000000002</v>
-      </c>
-      <c r="K161" s="1">
-        <v>5.8746700000000001</v>
-      </c>
-      <c r="L161" s="1">
-        <v>5.5454999999999997</v>
-      </c>
-      <c r="M161" s="1">
-        <v>5.7219800000000003</v>
-      </c>
-      <c r="N161" s="1">
-        <v>9.0963899999999995</v>
-      </c>
-      <c r="O161" s="1">
-        <v>9.0802899999999998</v>
-      </c>
-      <c r="P161" s="1">
-        <v>8.1798000000000002</v>
-      </c>
-      <c r="Q161" s="1">
-        <v>11.4377</v>
-      </c>
-      <c r="R161" s="1">
-        <v>11.9483</v>
-      </c>
-      <c r="S161" s="1">
-        <v>12.4543</v>
-      </c>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" s="1">
-        <v>54.7301</v>
-      </c>
-      <c r="C162" s="1">
-        <v>54.577599999999997</v>
-      </c>
-      <c r="D162" s="1">
-        <v>58.3095</v>
-      </c>
-      <c r="E162" s="1">
-        <v>134.73099999999999</v>
-      </c>
-      <c r="F162" s="1">
-        <v>125.401</v>
-      </c>
-      <c r="G162" s="1">
-        <v>127.447</v>
-      </c>
-      <c r="H162" s="1">
-        <v>14.387600000000001</v>
-      </c>
-      <c r="I162" s="1">
-        <v>12.783200000000001</v>
-      </c>
-      <c r="J162" s="1">
-        <v>15.3683</v>
-      </c>
-      <c r="K162" s="1">
-        <v>13.849</v>
-      </c>
-      <c r="L162" s="1">
-        <v>15.0297</v>
-      </c>
-      <c r="M162" s="1">
-        <v>13.458600000000001</v>
-      </c>
-      <c r="N162" s="1">
-        <v>3.2125900000000001</v>
-      </c>
-      <c r="O162" s="1">
-        <v>2.64377</v>
-      </c>
-      <c r="P162" s="1">
-        <v>2.2978800000000001</v>
-      </c>
-      <c r="Q162" s="1">
-        <v>3.4348200000000002</v>
-      </c>
-      <c r="R162" s="1">
-        <v>4.8603100000000001</v>
-      </c>
-      <c r="S162" s="1">
-        <v>3.7868200000000001</v>
-      </c>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B163" s="1">
-        <v>3.2668699999999999</v>
-      </c>
-      <c r="C163" s="1">
-        <v>3.69977</v>
-      </c>
-      <c r="D163" s="1">
-        <v>3.0825800000000001</v>
-      </c>
-      <c r="E163" s="1">
-        <v>5.12669</v>
-      </c>
-      <c r="F163" s="1">
-        <v>6.74336</v>
-      </c>
-      <c r="G163" s="1">
-        <v>8.5184300000000004</v>
-      </c>
-      <c r="H163" s="1">
-        <v>5.8295199999999996</v>
-      </c>
-      <c r="I163" s="1">
-        <v>6.5319200000000004</v>
-      </c>
-      <c r="J163" s="1">
-        <v>5.4188799999999997</v>
-      </c>
-      <c r="K163" s="1">
-        <v>7.3787500000000001</v>
-      </c>
-      <c r="L163" s="1">
-        <v>7.9862799999999998</v>
-      </c>
-      <c r="M163" s="1">
-        <v>10.8551</v>
-      </c>
-      <c r="N163" s="1">
-        <v>8.0375800000000002</v>
-      </c>
-      <c r="O163" s="1">
-        <v>4.73217</v>
-      </c>
-      <c r="P163" s="1">
-        <v>5.7158100000000003</v>
-      </c>
-      <c r="Q163" s="1">
-        <v>8.7087400000000006</v>
-      </c>
-      <c r="R163" s="1">
-        <v>11.166700000000001</v>
-      </c>
-      <c r="S163" s="1">
-        <v>8.3284199999999995</v>
-      </c>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="1">
-        <v>37.0824</v>
-      </c>
-      <c r="C164" s="1">
-        <v>34.822200000000002</v>
-      </c>
-      <c r="D164" s="1">
-        <v>37.358699999999999</v>
-      </c>
-      <c r="E164" s="1">
-        <v>82.937899999999999</v>
-      </c>
-      <c r="F164" s="1">
-        <v>72.858500000000006</v>
-      </c>
-      <c r="G164" s="1">
-        <v>79.506</v>
-      </c>
-      <c r="H164" s="1">
-        <v>57.496099999999998</v>
-      </c>
-      <c r="I164" s="1">
-        <v>66.685500000000005</v>
-      </c>
-      <c r="J164" s="1">
-        <v>64.503799999999998</v>
-      </c>
-      <c r="K164" s="1">
-        <v>108.018</v>
-      </c>
-      <c r="L164" s="1">
-        <v>113.46299999999999</v>
-      </c>
-      <c r="M164" s="1">
-        <v>110.486</v>
-      </c>
-      <c r="N164" s="1">
-        <v>84.8613</v>
-      </c>
-      <c r="O164" s="1">
-        <v>92.420100000000005</v>
-      </c>
-      <c r="P164" s="1">
-        <v>100.17100000000001</v>
-      </c>
-      <c r="Q164" s="1">
-        <v>150.893</v>
-      </c>
-      <c r="R164" s="1">
-        <v>167.69200000000001</v>
-      </c>
-      <c r="S164" s="1">
-        <v>168.506</v>
-      </c>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B165" s="1">
-        <v>0.21109700000000001</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0.192329</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0.229654</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0.51248899999999997</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0.505749</v>
-      </c>
-      <c r="G165" s="1">
-        <v>0.64457200000000003</v>
-      </c>
-      <c r="H165" s="1">
-        <v>3.4459300000000002</v>
-      </c>
-      <c r="I165" s="1">
-        <v>4.1515500000000003</v>
-      </c>
-      <c r="J165" s="1">
-        <v>3.6495000000000002</v>
-      </c>
-      <c r="K165" s="1">
-        <v>4.7349800000000002</v>
-      </c>
-      <c r="L165" s="1">
-        <v>5.0543699999999996</v>
-      </c>
-      <c r="M165" s="1">
-        <v>4.5984699999999998</v>
-      </c>
-      <c r="N165" s="1">
-        <v>0.30286099999999999</v>
-      </c>
-      <c r="O165" s="1">
-        <v>0.36316500000000002</v>
-      </c>
-      <c r="P165" s="1">
-        <v>0.20407</v>
-      </c>
-      <c r="Q165" s="1">
-        <v>0.27904200000000001</v>
-      </c>
-      <c r="R165" s="1">
-        <v>0.14387800000000001</v>
-      </c>
-      <c r="S165" s="1">
-        <v>0.30939499999999998</v>
-      </c>
-      <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" s="1">
-        <v>16.706600000000002</v>
-      </c>
-      <c r="C166" s="1">
-        <v>16.662400000000002</v>
-      </c>
-      <c r="D166" s="1">
-        <v>17.7821</v>
-      </c>
-      <c r="E166" s="1">
-        <v>36.780500000000004</v>
-      </c>
-      <c r="F166" s="1">
-        <v>35.146000000000001</v>
-      </c>
-      <c r="G166" s="1">
-        <v>33.692100000000003</v>
-      </c>
-      <c r="H166" s="1">
-        <v>847.91499999999996</v>
-      </c>
-      <c r="I166" s="1">
-        <v>784.74800000000005</v>
-      </c>
-      <c r="J166" s="1">
-        <v>743.55399999999997</v>
-      </c>
-      <c r="K166" s="1">
-        <v>933.03200000000004</v>
-      </c>
-      <c r="L166" s="1">
-        <v>943.13400000000001</v>
-      </c>
-      <c r="M166" s="1">
-        <v>840.94600000000003</v>
-      </c>
-      <c r="N166" s="1">
-        <v>1421.75</v>
-      </c>
-      <c r="O166" s="1">
-        <v>1455.82</v>
-      </c>
-      <c r="P166" s="1">
-        <v>1372.03</v>
-      </c>
-      <c r="Q166" s="1">
-        <v>1893.61</v>
-      </c>
-      <c r="R166" s="1">
-        <v>2148.86</v>
-      </c>
-      <c r="S166" s="1">
-        <v>2129.0300000000002</v>
-      </c>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="1">
-        <v>7.6923300000000001</v>
-      </c>
-      <c r="C167" s="1">
-        <v>8.8340200000000006</v>
-      </c>
-      <c r="D167" s="1">
-        <v>9.1704899999999991</v>
-      </c>
-      <c r="E167" s="1">
-        <v>18.568999999999999</v>
-      </c>
-      <c r="F167" s="1">
-        <v>19.931100000000001</v>
-      </c>
-      <c r="G167" s="1">
-        <v>20.343399999999999</v>
-      </c>
-      <c r="H167" s="1">
-        <v>15.061400000000001</v>
-      </c>
-      <c r="I167" s="1">
-        <v>15.2636</v>
-      </c>
-      <c r="J167" s="1">
-        <v>13.1929</v>
-      </c>
-      <c r="K167" s="1">
-        <v>22.799900000000001</v>
-      </c>
-      <c r="L167" s="1">
-        <v>22.1112</v>
-      </c>
-      <c r="M167" s="1">
-        <v>20.335100000000001</v>
-      </c>
-      <c r="N167" s="1">
-        <v>16.065000000000001</v>
-      </c>
-      <c r="O167" s="1">
-        <v>14.300700000000001</v>
-      </c>
-      <c r="P167" s="1">
-        <v>14.2423</v>
-      </c>
-      <c r="Q167" s="1">
-        <v>23.597899999999999</v>
-      </c>
-      <c r="R167" s="1">
-        <v>19.722999999999999</v>
-      </c>
-      <c r="S167" s="1">
-        <v>22.507400000000001</v>
-      </c>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B168" s="1">
-        <v>7.4294399999999996</v>
-      </c>
-      <c r="C168" s="1">
-        <v>8.4458099999999998</v>
-      </c>
-      <c r="D168" s="1">
-        <v>8.6538000000000004</v>
-      </c>
-      <c r="E168" s="1">
-        <v>18.1556</v>
-      </c>
-      <c r="F168" s="1">
-        <v>16.5654</v>
-      </c>
-      <c r="G168" s="1">
-        <v>17.276199999999999</v>
-      </c>
-      <c r="H168" s="1">
-        <v>15.8339</v>
-      </c>
-      <c r="I168" s="1">
-        <v>14.8889</v>
-      </c>
-      <c r="J168" s="1">
-        <v>14.383599999999999</v>
-      </c>
-      <c r="K168" s="1">
-        <v>19.226800000000001</v>
-      </c>
-      <c r="L168" s="1">
-        <v>19.648199999999999</v>
-      </c>
-      <c r="M168" s="1">
-        <v>18.4209</v>
-      </c>
-      <c r="N168" s="1">
-        <v>8.7144700000000004</v>
-      </c>
-      <c r="O168" s="1">
-        <v>9.7494099999999992</v>
-      </c>
-      <c r="P168" s="1">
-        <v>8.0654699999999995</v>
-      </c>
-      <c r="Q168" s="1">
-        <v>11.8461</v>
-      </c>
-      <c r="R168" s="1">
-        <v>12.8902</v>
-      </c>
-      <c r="S168" s="1">
-        <v>12.080399999999999</v>
-      </c>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A169" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1">
-        <v>0.46161099999999999</v>
-      </c>
-      <c r="C169" s="1">
-        <v>0.39862799999999998</v>
-      </c>
-      <c r="D169" s="1">
-        <v>0.56037400000000004</v>
-      </c>
-      <c r="E169" s="1">
-        <v>1.1000799999999999</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0.93369199999999997</v>
-      </c>
-      <c r="G169" s="1">
-        <v>0.99009400000000003</v>
-      </c>
-      <c r="H169" s="1">
-        <v>1.1620600000000001</v>
-      </c>
-      <c r="I169" s="1">
-        <v>0.95132099999999997</v>
-      </c>
-      <c r="J169" s="1">
-        <v>1.12079</v>
-      </c>
-      <c r="K169" s="1">
-        <v>1.0311999999999999</v>
-      </c>
-      <c r="L169" s="1">
-        <v>0.87248199999999998</v>
-      </c>
-      <c r="M169" s="1">
-        <v>0.79076500000000005</v>
-      </c>
-      <c r="N169" s="1">
-        <v>1.1071200000000001</v>
-      </c>
-      <c r="O169" s="1">
-        <v>1.4206300000000001</v>
-      </c>
-      <c r="P169" s="1">
-        <v>1.25654</v>
-      </c>
-      <c r="Q169" s="1">
-        <v>1.7843500000000001</v>
-      </c>
-      <c r="R169" s="1">
-        <v>1.76302</v>
-      </c>
-      <c r="S169" s="1">
-        <v>1.93818</v>
-      </c>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" s="1">
-        <v>0.19780900000000001</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0.168241</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0.126053</v>
-      </c>
-      <c r="E170" s="1">
-        <v>0.53077099999999999</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0.566276</v>
-      </c>
-      <c r="G170" s="1">
-        <v>0.47097099999999997</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0.334171</v>
-      </c>
-      <c r="I170" s="1">
-        <v>0.317139</v>
-      </c>
-      <c r="J170" s="1">
-        <v>0.43741999999999998</v>
-      </c>
-      <c r="K170" s="1">
-        <v>0.34661199999999998</v>
-      </c>
-      <c r="L170" s="1">
-        <v>0.396171</v>
-      </c>
-      <c r="M170" s="1">
-        <v>0.43357000000000001</v>
-      </c>
-      <c r="N170" s="1">
-        <v>0.565469</v>
-      </c>
-      <c r="O170" s="1">
-        <v>0.55447299999999999</v>
-      </c>
-      <c r="P170" s="1">
-        <v>0.52995499999999995</v>
-      </c>
-      <c r="Q170" s="1">
-        <v>0.80369800000000002</v>
-      </c>
-      <c r="R170" s="1">
-        <v>0.85850300000000002</v>
-      </c>
-      <c r="S170" s="1">
-        <v>0.97408799999999995</v>
-      </c>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="1">
-        <v>12.639799999999999</v>
-      </c>
-      <c r="C171" s="1">
-        <v>9.2918099999999999</v>
-      </c>
-      <c r="D171" s="1">
-        <v>12.2447</v>
-      </c>
-      <c r="E171" s="1">
-        <v>29.948899999999998</v>
-      </c>
-      <c r="F171" s="1">
-        <v>30.8719</v>
-      </c>
-      <c r="G171" s="1">
-        <v>29.987100000000002</v>
-      </c>
-      <c r="H171" s="1">
-        <v>5.6043399999999997</v>
-      </c>
-      <c r="I171" s="1">
-        <v>5.5229299999999997</v>
-      </c>
-      <c r="J171" s="1">
-        <v>4.7725299999999997</v>
-      </c>
-      <c r="K171" s="1">
-        <v>6.4269299999999996</v>
-      </c>
-      <c r="L171" s="1">
-        <v>7.1370300000000002</v>
-      </c>
-      <c r="M171" s="1">
-        <v>6.1095800000000002</v>
-      </c>
-      <c r="N171" s="1">
-        <v>60.730200000000004</v>
-      </c>
-      <c r="O171" s="1">
-        <v>61.069200000000002</v>
-      </c>
-      <c r="P171" s="1">
-        <v>58.868299999999998</v>
-      </c>
-      <c r="Q171" s="1">
-        <v>64.923100000000005</v>
-      </c>
-      <c r="R171" s="1">
-        <v>74.528199999999998</v>
-      </c>
-      <c r="S171" s="1">
-        <v>75.343100000000007</v>
-      </c>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B172" s="1">
-        <v>6.7247500000000002</v>
-      </c>
-      <c r="C172" s="1">
-        <v>7.1434100000000003</v>
-      </c>
-      <c r="D172" s="1">
-        <v>7.4484300000000001</v>
-      </c>
-      <c r="E172" s="1">
-        <v>15.247999999999999</v>
-      </c>
-      <c r="F172" s="1">
-        <v>15.1639</v>
-      </c>
-      <c r="G172" s="1">
-        <v>14.275</v>
-      </c>
-      <c r="H172" s="1">
-        <v>3.0844100000000001</v>
-      </c>
-      <c r="I172" s="1">
-        <v>2.2540200000000001</v>
-      </c>
-      <c r="J172" s="1">
-        <v>2.7252299999999998</v>
-      </c>
-      <c r="K172" s="1">
-        <v>3.8926500000000002</v>
-      </c>
-      <c r="L172" s="1">
-        <v>4.5386300000000004</v>
-      </c>
-      <c r="M172" s="1">
-        <v>5.04162</v>
-      </c>
-      <c r="N172" s="1">
-        <v>10.3825</v>
-      </c>
-      <c r="O172" s="1">
-        <v>10.1775</v>
-      </c>
-      <c r="P172" s="1">
-        <v>11.3003</v>
-      </c>
-      <c r="Q172" s="1">
-        <v>10.988099999999999</v>
-      </c>
-      <c r="R172" s="1">
-        <v>11.6378</v>
-      </c>
-      <c r="S172" s="1">
-        <v>12.0327</v>
-      </c>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B173" s="1">
-        <v>2.4866600000000001</v>
-      </c>
-      <c r="C173" s="1">
-        <v>2.1212900000000001</v>
-      </c>
-      <c r="D173" s="1">
-        <v>2.40056</v>
-      </c>
-      <c r="E173" s="1">
-        <v>5.8207399999999998</v>
-      </c>
-      <c r="F173" s="1">
-        <v>6.0240900000000002</v>
-      </c>
-      <c r="G173" s="1">
-        <v>6.2247199999999996</v>
-      </c>
-      <c r="H173" s="1">
-        <v>17.815000000000001</v>
-      </c>
-      <c r="I173" s="1">
-        <v>17.365100000000002</v>
-      </c>
-      <c r="J173" s="1">
-        <v>17.930800000000001</v>
-      </c>
-      <c r="K173" s="1">
-        <v>17.484500000000001</v>
-      </c>
-      <c r="L173" s="1">
-        <v>17.127800000000001</v>
-      </c>
-      <c r="M173" s="1">
-        <v>18.136199999999999</v>
-      </c>
-      <c r="N173" s="1">
-        <v>5.66899</v>
-      </c>
-      <c r="O173" s="1">
-        <v>5.6601800000000004</v>
-      </c>
-      <c r="P173" s="1">
-        <v>5.3124599999999997</v>
-      </c>
-      <c r="Q173" s="1">
-        <v>7.5305499999999999</v>
-      </c>
-      <c r="R173" s="1">
-        <v>8.1798400000000004</v>
-      </c>
-      <c r="S173" s="1">
-        <v>8.3320699999999999</v>
-      </c>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" s="1">
-        <v>41.345300000000002</v>
-      </c>
-      <c r="C174" s="1">
-        <v>40.622100000000003</v>
-      </c>
-      <c r="D174" s="1">
-        <v>44.236699999999999</v>
-      </c>
-      <c r="E174" s="1">
-        <v>82.924000000000007</v>
-      </c>
-      <c r="F174" s="1">
-        <v>88.252799999999993</v>
-      </c>
-      <c r="G174" s="1">
-        <v>81.888599999999997</v>
-      </c>
-      <c r="H174" s="1">
-        <v>11.9267</v>
-      </c>
-      <c r="I174" s="1">
-        <v>11.7296</v>
-      </c>
-      <c r="J174" s="1">
-        <v>10.7584</v>
-      </c>
-      <c r="K174" s="1">
-        <v>13.3506</v>
-      </c>
-      <c r="L174" s="1">
-        <v>12.623100000000001</v>
-      </c>
-      <c r="M174" s="1">
-        <v>13.209300000000001</v>
-      </c>
-      <c r="N174" s="1">
-        <v>14.6454</v>
-      </c>
-      <c r="O174" s="1">
-        <v>13.9513</v>
-      </c>
-      <c r="P174" s="1">
-        <v>14.8805</v>
-      </c>
-      <c r="Q174" s="1">
-        <v>16.052600000000002</v>
-      </c>
-      <c r="R174" s="1">
-        <v>17.615600000000001</v>
-      </c>
-      <c r="S174" s="1">
-        <v>17.462499999999999</v>
-      </c>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175" s="1">
-        <v>12.670299999999999</v>
-      </c>
-      <c r="C175" s="1">
-        <v>10.222899999999999</v>
-      </c>
-      <c r="D175" s="1">
-        <v>12.772500000000001</v>
-      </c>
-      <c r="E175" s="1">
-        <v>31.9834</v>
-      </c>
-      <c r="F175" s="1">
-        <v>30.3949</v>
-      </c>
-      <c r="G175" s="1">
-        <v>30.81</v>
-      </c>
-      <c r="H175" s="1">
-        <v>13.989699999999999</v>
-      </c>
-      <c r="I175" s="1">
-        <v>13.130800000000001</v>
-      </c>
-      <c r="J175" s="1">
-        <v>12.937099999999999</v>
-      </c>
-      <c r="K175" s="1">
-        <v>14.0946</v>
-      </c>
-      <c r="L175" s="1">
-        <v>14.1326</v>
-      </c>
-      <c r="M175" s="1">
-        <v>13.879200000000001</v>
-      </c>
-      <c r="N175" s="1">
-        <v>14.9756</v>
-      </c>
-      <c r="O175" s="1">
-        <v>13.7669</v>
-      </c>
-      <c r="P175" s="1">
-        <v>14.0703</v>
-      </c>
-      <c r="Q175" s="1">
-        <v>17.6556</v>
-      </c>
-      <c r="R175" s="1">
-        <v>16.595300000000002</v>
-      </c>
-      <c r="S175" s="1">
-        <v>16.6022</v>
-      </c>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176" s="1">
-        <v>9.7526200000000003</v>
-      </c>
-      <c r="C176" s="1">
-        <v>10.9178</v>
-      </c>
-      <c r="D176" s="1">
-        <v>9.7032699999999998</v>
-      </c>
-      <c r="E176" s="1">
-        <v>22.063300000000002</v>
-      </c>
-      <c r="F176" s="1">
-        <v>24.947800000000001</v>
-      </c>
-      <c r="G176" s="1">
-        <v>23.673200000000001</v>
-      </c>
-      <c r="H176" s="1">
-        <v>2.8981499999999998</v>
-      </c>
-      <c r="I176" s="1">
-        <v>3.3149000000000002</v>
-      </c>
-      <c r="J176" s="1">
-        <v>2.83155</v>
-      </c>
-      <c r="K176" s="1">
-        <v>4.6236800000000002</v>
-      </c>
-      <c r="L176" s="1">
-        <v>4.4983599999999999</v>
-      </c>
-      <c r="M176" s="1">
-        <v>4.7361300000000002</v>
-      </c>
-      <c r="N176" s="1">
-        <v>3.5977100000000002</v>
-      </c>
-      <c r="O176" s="1">
-        <v>3.0304700000000002</v>
-      </c>
-      <c r="P176" s="1">
-        <v>3.1324299999999998</v>
-      </c>
-      <c r="Q176" s="1">
-        <v>6.1274699999999998</v>
-      </c>
-      <c r="R176" s="1">
-        <v>5.4671900000000004</v>
-      </c>
-      <c r="S176" s="1">
-        <v>5.92814</v>
-      </c>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B177" s="1">
-        <v>6.8485699999999996</v>
-      </c>
-      <c r="C177" s="1">
-        <v>9.2657000000000007</v>
-      </c>
-      <c r="D177" s="1">
-        <v>8.7108699999999999</v>
-      </c>
-      <c r="E177" s="1">
-        <v>20.1038</v>
-      </c>
-      <c r="F177" s="1">
-        <v>18.5579</v>
-      </c>
-      <c r="G177" s="1">
-        <v>18.297000000000001</v>
-      </c>
-      <c r="H177" s="1">
-        <v>6.7604100000000003</v>
-      </c>
-      <c r="I177" s="1">
-        <v>8.2357300000000002</v>
-      </c>
-      <c r="J177" s="1">
-        <v>6.2013999999999996</v>
-      </c>
-      <c r="K177" s="1">
-        <v>9.5915700000000008</v>
-      </c>
-      <c r="L177" s="1">
-        <v>12.513199999999999</v>
-      </c>
-      <c r="M177" s="1">
-        <v>6.46732</v>
-      </c>
-      <c r="N177" s="1">
-        <v>9.8583599999999993</v>
-      </c>
-      <c r="O177" s="1">
-        <v>10.964700000000001</v>
-      </c>
-      <c r="P177" s="1">
-        <v>8.4878199999999993</v>
-      </c>
-      <c r="Q177" s="1">
-        <v>11.3177</v>
-      </c>
-      <c r="R177" s="1">
-        <v>16.782</v>
-      </c>
-      <c r="S177" s="1">
-        <v>17.274699999999999</v>
-      </c>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" s="1">
-        <v>0.46366099999999999</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0.49657200000000001</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0.54703800000000002</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1.01284</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1.08832</v>
-      </c>
-      <c r="G178" s="1">
-        <v>0.94667500000000004</v>
-      </c>
-      <c r="H178" s="1">
-        <v>1.4227700000000001</v>
-      </c>
-      <c r="I178" s="1">
-        <v>1.59744</v>
-      </c>
-      <c r="J178" s="1">
-        <v>1.6153500000000001</v>
-      </c>
-      <c r="K178" s="1">
-        <v>2.1383899999999998</v>
-      </c>
-      <c r="L178" s="1">
-        <v>1.9277899999999999</v>
-      </c>
-      <c r="M178" s="1">
-        <v>2.01213</v>
-      </c>
-      <c r="N178" s="1">
-        <v>1.01403</v>
-      </c>
-      <c r="O178" s="1">
-        <v>0.767961</v>
-      </c>
-      <c r="P178" s="1">
-        <v>0.85407599999999995</v>
-      </c>
-      <c r="Q178" s="1">
-        <v>1.1977</v>
-      </c>
-      <c r="R178" s="1">
-        <v>1.1171599999999999</v>
-      </c>
-      <c r="S178" s="1">
-        <v>1.2778499999999999</v>
-      </c>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B179" s="1">
-        <v>14.803699999999999</v>
-      </c>
-      <c r="C179" s="1">
-        <v>15.064</v>
-      </c>
-      <c r="D179" s="1">
-        <v>14.830500000000001</v>
-      </c>
-      <c r="E179" s="1">
-        <v>34.364600000000003</v>
-      </c>
-      <c r="F179" s="1">
-        <v>30.575099999999999</v>
-      </c>
-      <c r="G179" s="1">
-        <v>34.964500000000001</v>
-      </c>
-      <c r="H179" s="1">
-        <v>5.3007600000000004</v>
-      </c>
-      <c r="I179" s="1">
-        <v>4.2572099999999997</v>
-      </c>
-      <c r="J179" s="1">
-        <v>4.8746499999999999</v>
-      </c>
-      <c r="K179" s="1">
-        <v>9.9328400000000006</v>
-      </c>
-      <c r="L179" s="1">
-        <v>8.7981700000000007</v>
-      </c>
-      <c r="M179" s="1">
-        <v>8.1843000000000004</v>
-      </c>
-      <c r="N179" s="1">
-        <v>7.3246000000000002</v>
-      </c>
-      <c r="O179" s="1">
-        <v>8.2799899999999997</v>
-      </c>
-      <c r="P179" s="1">
-        <v>6.7694000000000001</v>
-      </c>
-      <c r="Q179" s="1">
-        <v>11.266999999999999</v>
-      </c>
-      <c r="R179" s="1">
-        <v>10.8367</v>
-      </c>
-      <c r="S179" s="1">
-        <v>10.638199999999999</v>
-      </c>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B180" s="1">
-        <v>3.4667300000000001</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2.3484099999999999</v>
-      </c>
-      <c r="D180" s="1">
-        <v>3.8755500000000001</v>
-      </c>
-      <c r="E180" s="1">
-        <v>8.1058199999999996</v>
-      </c>
-      <c r="F180" s="1">
-        <v>7.8815299999999997</v>
-      </c>
-      <c r="G180" s="1">
-        <v>7.66188</v>
-      </c>
-      <c r="H180" s="1">
-        <v>3.1817199999999999</v>
-      </c>
-      <c r="I180" s="1">
-        <v>3.56128</v>
-      </c>
-      <c r="J180" s="1">
-        <v>2.3573</v>
-      </c>
-      <c r="K180" s="1">
-        <v>4.5142899999999999</v>
-      </c>
-      <c r="L180" s="1">
-        <v>3.8982299999999999</v>
-      </c>
-      <c r="M180" s="1">
-        <v>3.63626</v>
-      </c>
-      <c r="N180" s="1">
-        <v>2.6902400000000002</v>
-      </c>
-      <c r="O180" s="1">
-        <v>3.7450299999999999</v>
-      </c>
-      <c r="P180" s="1">
-        <v>2.4966200000000001</v>
-      </c>
-      <c r="Q180" s="1">
-        <v>4.0371800000000002</v>
-      </c>
-      <c r="R180" s="1">
-        <v>6.5036300000000002</v>
-      </c>
-      <c r="S180" s="1">
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B181" s="1">
-        <v>4.1941300000000004</v>
-      </c>
-      <c r="C181" s="1">
-        <v>4.13856</v>
-      </c>
-      <c r="D181" s="1">
-        <v>3.7823500000000001</v>
-      </c>
-      <c r="E181" s="1">
-        <v>8.6095000000000006</v>
-      </c>
-      <c r="F181" s="1">
-        <v>8.4639699999999998</v>
-      </c>
-      <c r="G181" s="1">
-        <v>8.0719899999999996</v>
-      </c>
-      <c r="H181" s="1">
-        <v>4.1973900000000004</v>
-      </c>
-      <c r="I181" s="1">
-        <v>4.1761600000000003</v>
-      </c>
-      <c r="J181" s="1">
-        <v>4.0235500000000002</v>
-      </c>
-      <c r="K181" s="1">
-        <v>6.0777999999999999</v>
-      </c>
-      <c r="L181" s="1">
-        <v>5.9089299999999998</v>
-      </c>
-      <c r="M181" s="1">
-        <v>5.7670899999999996</v>
-      </c>
-      <c r="N181" s="1">
-        <v>5.7839999999999998</v>
-      </c>
-      <c r="O181" s="1">
-        <v>5.7350099999999999</v>
-      </c>
-      <c r="P181" s="1">
-        <v>5.9918899999999997</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>10.648099999999999</v>
-      </c>
-      <c r="R181" s="1">
-        <v>10.9145</v>
-      </c>
-      <c r="S181" s="1">
-        <v>12.1371</v>
-      </c>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B182" s="1">
-        <v>0.74047600000000002</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0.58071399999999995</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0.63177000000000005</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1.43512</v>
-      </c>
-      <c r="F182" s="1">
-        <v>1.24455</v>
-      </c>
-      <c r="G182" s="1">
-        <v>1.30328</v>
-      </c>
-      <c r="H182" s="1">
-        <v>0.307923</v>
-      </c>
-      <c r="I182" s="1">
-        <v>0.42184899999999997</v>
-      </c>
-      <c r="J182" s="1">
-        <v>0.35981099999999999</v>
-      </c>
-      <c r="K182" s="1">
-        <v>0.44481900000000002</v>
-      </c>
-      <c r="L182" s="1">
-        <v>0.43926100000000001</v>
-      </c>
-      <c r="M182" s="1">
-        <v>0.38840999999999998</v>
-      </c>
-      <c r="N182" s="1">
-        <v>0.80226299999999995</v>
-      </c>
-      <c r="O182" s="1">
-        <v>0.52813500000000002</v>
-      </c>
-      <c r="P182" s="1">
-        <v>0.60511599999999999</v>
-      </c>
-      <c r="Q182" s="1">
-        <v>0.79432899999999995</v>
-      </c>
-      <c r="R182" s="1">
-        <v>0.89592899999999998</v>
-      </c>
-      <c r="S182" s="1">
-        <v>1.0733900000000001</v>
-      </c>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S182">
-    <sortCondition sortBy="cellColor" ref="A2:A182" dxfId="1"/>
-  </sortState>
-  <conditionalFormatting sqref="U2:U114">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576 U1:U1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A1:A114">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
